--- a/temples.xlsx
+++ b/temples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\stive\Projects\Grepolis\grepo-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F579B77-B55D-4288-9F07-8BAA3B19173C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2392CE-2BF9-490A-9973-780E16EEA111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5719548D-744F-4128-9DF0-7691A9EE8CF3}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$K$151</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="363">
   <si>
     <t>ID</t>
   </si>
@@ -1602,10 +1602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA553AD-7488-4E19-BD67-4BAEBB106A2F}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1652,67 +1653,67 @@
     </row>
     <row r="2" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>353</v>
+        <v>487</v>
       </c>
       <c r="C2" s="4">
-        <v>369</v>
+        <v>507</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="E2" s="4">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>348</v>
+        <v>64</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>352</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="I2" s="4">
-        <v>-147</v>
+        <v>-13</v>
       </c>
       <c r="J2" s="4">
-        <v>-131</v>
+        <v>7</v>
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>612</v>
+        <v>534</v>
       </c>
       <c r="C3" s="4">
-        <v>686</v>
+        <v>487</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>310</v>
+        <v>219</v>
       </c>
       <c r="E3" s="4">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>15</v>
+        <v>134</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>355</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>311</v>
+        <v>220</v>
       </c>
       <c r="I3" s="4">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="J3" s="4">
-        <v>186</v>
+        <v>-13</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>357</v>
@@ -1720,168 +1721,172 @@
     </row>
     <row r="4" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>578</v>
+        <v>475</v>
       </c>
       <c r="C4" s="4">
-        <v>369</v>
+        <v>532</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="E4" s="4">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>351</v>
+        <v>104</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>352</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="I4" s="4">
-        <v>78</v>
+        <v>-25</v>
       </c>
       <c r="J4" s="4">
-        <v>-131</v>
+        <v>32</v>
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>722</v>
+        <v>486</v>
       </c>
       <c r="C5" s="4">
-        <v>518</v>
+        <v>479</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>334</v>
+        <v>150</v>
       </c>
       <c r="E5" s="4">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>355</v>
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="I5" s="4">
-        <v>222</v>
+        <v>-14</v>
       </c>
       <c r="J5" s="4">
-        <v>18</v>
-      </c>
-      <c r="K5" s="2"/>
+        <v>-21</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>719</v>
+        <v>528</v>
       </c>
       <c r="C6" s="4">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="E6" s="4">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>350</v>
+        <v>14</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>325</v>
+        <v>226</v>
       </c>
       <c r="I6" s="4">
-        <v>219</v>
+        <v>28</v>
       </c>
       <c r="J6" s="4">
-        <v>-33</v>
-      </c>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-46</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>358</v>
+        <v>487</v>
       </c>
       <c r="C7" s="4">
-        <v>668</v>
+        <v>560</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="E7" s="4">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>351</v>
+        <v>64</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>352</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="I7" s="4">
-        <v>-142</v>
+        <v>-13</v>
       </c>
       <c r="J7" s="4">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>149</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>480</v>
+        <v>511</v>
       </c>
       <c r="C8" s="4">
-        <v>246</v>
+        <v>559</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>360</v>
+        <v>233</v>
       </c>
       <c r="E8" s="4">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>351</v>
+        <v>234</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>117</v>
+        <v>235</v>
       </c>
       <c r="I8" s="4">
-        <v>-20</v>
+        <v>11</v>
       </c>
       <c r="J8" s="4">
-        <v>-254</v>
+        <v>59</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>357</v>
@@ -1889,85 +1894,85 @@
     </row>
     <row r="9" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C9" s="4">
-        <v>694</v>
+        <v>455</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="E9" s="4">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>348</v>
+        <v>104</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>352</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="I9" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J9" s="4">
-        <v>194</v>
+        <v>-45</v>
       </c>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>375</v>
+        <v>554</v>
       </c>
       <c r="C10" s="4">
-        <v>419</v>
+        <v>504</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>236</v>
       </c>
       <c r="E10" s="4">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>348</v>
+        <v>45</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>351</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>74</v>
+        <v>237</v>
       </c>
       <c r="I10" s="4">
-        <v>-125</v>
+        <v>54</v>
       </c>
       <c r="J10" s="4">
-        <v>-81</v>
+        <v>4</v>
       </c>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>751</v>
+        <v>455</v>
       </c>
       <c r="C11" s="4">
-        <v>570</v>
+        <v>432</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>336</v>
+        <v>142</v>
       </c>
       <c r="E11" s="4">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>14</v>
@@ -1976,31 +1981,31 @@
         <v>15</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>337</v>
+        <v>143</v>
       </c>
       <c r="I11" s="4">
-        <v>251</v>
+        <v>-45</v>
       </c>
       <c r="J11" s="4">
-        <v>70</v>
+        <v>-68</v>
       </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>581</v>
+        <v>456</v>
       </c>
       <c r="C12" s="4">
-        <v>485</v>
+        <v>571</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="E12" s="4">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>51</v>
@@ -2009,248 +2014,248 @@
         <v>354</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="I12" s="4">
-        <v>81</v>
+        <v>-44</v>
       </c>
       <c r="J12" s="4">
-        <v>-15</v>
+        <v>71</v>
       </c>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>546</v>
+        <v>432</v>
       </c>
       <c r="C13" s="4">
-        <v>597</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>227</v>
+        <v>490</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="E13" s="4">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>15</v>
+        <v>140</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c r="I13" s="4">
-        <v>46</v>
+        <v>-68</v>
       </c>
       <c r="J13" s="4">
-        <v>97</v>
+        <v>-10</v>
       </c>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>502</v>
+        <v>583</v>
       </c>
       <c r="C14" s="4">
-        <v>652</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>240</v>
+        <v>529</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="E14" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>348</v>
+        <v>45</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>351</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="I14" s="4">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="J14" s="4">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>713</v>
+        <v>581</v>
       </c>
       <c r="C15" s="4">
-        <v>400</v>
+        <v>485</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>326</v>
+        <v>217</v>
       </c>
       <c r="E15" s="4">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>354</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>327</v>
+        <v>218</v>
       </c>
       <c r="I15" s="4">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="J15" s="4">
-        <v>-100</v>
+        <v>-15</v>
       </c>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>400</v>
+        <v>551</v>
       </c>
       <c r="C16" s="4">
-        <v>501</v>
+        <v>436</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c r="E16" s="4">
+        <v>54</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I16" s="4">
+        <v>51</v>
+      </c>
+      <c r="J16" s="4">
+        <v>-64</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>430</v>
+      </c>
+      <c r="C17" s="4">
+        <v>513</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" s="4">
         <v>45</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I16" s="4">
-        <v>-100</v>
-      </c>
-      <c r="J16" s="4">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>116</v>
-      </c>
-      <c r="B17" s="4">
-        <v>740</v>
-      </c>
-      <c r="C17" s="4">
-        <v>485</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E17" s="4">
-        <v>74</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>349</v>
+        <v>45</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>351</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>329</v>
+        <v>162</v>
       </c>
       <c r="I17" s="4">
-        <v>240</v>
+        <v>-70</v>
       </c>
       <c r="J17" s="4">
-        <v>-15</v>
+        <v>13</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>341</v>
+        <v>404</v>
       </c>
       <c r="C18" s="4">
-        <v>306</v>
+        <v>530</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="E18" s="4">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>354</v>
+        <v>14</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="I18" s="4">
-        <v>-159</v>
+        <v>-96</v>
       </c>
       <c r="J18" s="4">
-        <v>-194</v>
+        <v>30</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4">
-        <v>331</v>
+        <v>546</v>
       </c>
       <c r="C19" s="4">
-        <v>609</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>103</v>
+        <v>597</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="E19" s="4">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>352</v>
+        <v>14</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>105</v>
+        <v>228</v>
       </c>
       <c r="I19" s="4">
-        <v>-169</v>
+        <v>46</v>
       </c>
       <c r="J19" s="4">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>357</v>
@@ -2258,232 +2263,232 @@
     </row>
     <row r="20" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4">
-        <v>613</v>
+        <v>468</v>
       </c>
       <c r="C20" s="4">
-        <v>377</v>
+        <v>589</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>261</v>
+        <v>165</v>
       </c>
       <c r="E20" s="4">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>348</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>262</v>
+        <v>167</v>
       </c>
       <c r="I20" s="4">
-        <v>113</v>
+        <v>-32</v>
       </c>
       <c r="J20" s="4">
-        <v>-123</v>
+        <v>89</v>
       </c>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4">
-        <v>524</v>
+        <v>400</v>
       </c>
       <c r="C21" s="4">
-        <v>750</v>
+        <v>501</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>250</v>
+        <v>154</v>
       </c>
       <c r="E21" s="4">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="G21" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>348</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>252</v>
+        <v>156</v>
       </c>
       <c r="I21" s="4">
-        <v>24</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="4">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="C22" s="4">
-        <v>490</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>139</v>
+        <v>461</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="E22" s="4">
         <v>44</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>349</v>
+        <v>40</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I22" s="4">
-        <v>-68</v>
+        <v>-83</v>
       </c>
       <c r="J22" s="4">
-        <v>-10</v>
+        <v>-39</v>
       </c>
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4">
-        <v>656</v>
+        <v>603</v>
       </c>
       <c r="C23" s="4">
-        <v>380</v>
+        <v>494</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="E23" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>352</v>
+        <v>26</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="I23" s="4">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="J23" s="4">
-        <v>-120</v>
+        <v>-6</v>
       </c>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4">
-        <v>524</v>
+        <v>569</v>
       </c>
       <c r="C24" s="4">
-        <v>719</v>
+        <v>580</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="E24" s="4">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>348</v>
+        <v>56</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="I24" s="4">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="J24" s="4">
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4">
-        <v>669</v>
+        <v>489</v>
       </c>
       <c r="C25" s="4">
-        <v>485</v>
+        <v>597</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>275</v>
+        <v>172</v>
       </c>
       <c r="E25" s="4">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>354</v>
+        <v>26</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>276</v>
+        <v>173</v>
       </c>
       <c r="I25" s="4">
-        <v>169</v>
+        <v>-11</v>
       </c>
       <c r="J25" s="4">
-        <v>-15</v>
+        <v>97</v>
       </c>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4">
-        <v>469</v>
+        <v>402</v>
       </c>
       <c r="C26" s="4">
-        <v>389</v>
+        <v>476</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E26" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>15</v>
+        <v>140</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="I26" s="4">
-        <v>-31</v>
+        <v>-98</v>
       </c>
       <c r="J26" s="4">
-        <v>-111</v>
+        <v>-24</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>357</v>
@@ -2491,102 +2496,102 @@
     </row>
     <row r="27" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4">
-        <v>735</v>
+        <v>517</v>
       </c>
       <c r="C27" s="4">
-        <v>553</v>
+        <v>374</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>338</v>
+        <v>208</v>
       </c>
       <c r="E27" s="4">
+        <v>53</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I27" s="4">
+        <v>17</v>
+      </c>
+      <c r="J27" s="4">
+        <v>-126</v>
+      </c>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <v>399</v>
+      </c>
+      <c r="C28" s="4">
+        <v>575</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="4">
+        <v>35</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" s="4">
+        <v>-101</v>
+      </c>
+      <c r="J28" s="4">
         <v>75</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="I27" s="4">
-        <v>235</v>
-      </c>
-      <c r="J27" s="4">
-        <v>53</v>
-      </c>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>71</v>
-      </c>
-      <c r="B28" s="4">
-        <v>308</v>
-      </c>
-      <c r="C28" s="4">
-        <v>466</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="4">
-        <v>34</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I28" s="4">
-        <v>-192</v>
-      </c>
-      <c r="J28" s="4">
-        <v>-34</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4">
-        <v>363</v>
+        <v>611</v>
       </c>
       <c r="C29" s="4">
-        <v>639</v>
+        <v>574</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>106</v>
+        <v>361</v>
       </c>
       <c r="E29" s="4">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>353</v>
+        <v>104</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>352</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>107</v>
+        <v>302</v>
       </c>
       <c r="I29" s="4">
-        <v>-137</v>
+        <v>111</v>
       </c>
       <c r="J29" s="4">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>357</v>
@@ -2594,67 +2599,67 @@
     </row>
     <row r="30" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4">
-        <v>490</v>
+        <v>605</v>
       </c>
       <c r="C30" s="4">
-        <v>369</v>
+        <v>433</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>128</v>
+        <v>279</v>
       </c>
       <c r="E30" s="4">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>352</v>
+        <v>45</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>351</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I30" s="4">
+        <v>105</v>
+      </c>
+      <c r="J30" s="4">
+        <v>-67</v>
+      </c>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
+        <v>512</v>
+      </c>
+      <c r="C31" s="4">
+        <v>629</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E31" s="4">
+        <v>56</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I31" s="4">
+        <v>12</v>
+      </c>
+      <c r="J31" s="4">
         <v>129</v>
-      </c>
-      <c r="I30" s="4">
-        <v>-10</v>
-      </c>
-      <c r="J30" s="4">
-        <v>-131</v>
-      </c>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>97</v>
-      </c>
-      <c r="B31" s="4">
-        <v>553</v>
-      </c>
-      <c r="C31" s="4">
-        <v>304</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E31" s="4">
-        <v>53</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I31" s="4">
-        <v>53</v>
-      </c>
-      <c r="J31" s="4">
-        <v>-196</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>357</v>
@@ -2662,19 +2667,19 @@
     </row>
     <row r="32" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4">
-        <v>455</v>
+        <v>372</v>
       </c>
       <c r="C32" s="4">
-        <v>432</v>
+        <v>503</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="E32" s="4">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>14</v>
@@ -2683,64 +2688,64 @@
         <v>15</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="I32" s="4">
-        <v>-45</v>
+        <v>-128</v>
       </c>
       <c r="J32" s="4">
-        <v>-68</v>
+        <v>3</v>
       </c>
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4">
-        <v>698</v>
+        <v>601</v>
       </c>
       <c r="C33" s="4">
-        <v>325</v>
+        <v>412</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="E33" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>348</v>
+        <v>51</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>354</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="I33" s="4">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="J33" s="4">
-        <v>-175</v>
+        <v>-88</v>
       </c>
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C34" s="4">
-        <v>560</v>
+        <v>369</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="E34" s="4">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>64</v>
@@ -2749,180 +2754,180 @@
         <v>352</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="I34" s="4">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="J34" s="4">
-        <v>60</v>
+        <v>-131</v>
       </c>
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="C35" s="4">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="E35" s="4">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>348</v>
+        <v>85</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="I35" s="4">
-        <v>-83</v>
+        <v>-120</v>
       </c>
       <c r="J35" s="4">
-        <v>-39</v>
+        <v>-40</v>
       </c>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4">
-        <v>396</v>
+        <v>469</v>
       </c>
       <c r="C36" s="4">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="E36" s="4">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>351</v>
+        <v>14</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="I36" s="4">
-        <v>-104</v>
+        <v>-31</v>
       </c>
       <c r="J36" s="4">
-        <v>-119</v>
+        <v>-111</v>
       </c>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4">
-        <v>568</v>
+        <v>409</v>
       </c>
       <c r="C37" s="4">
-        <v>264</v>
+        <v>423</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="E37" s="4">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>350</v>
+        <v>104</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>352</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="I37" s="4">
-        <v>68</v>
+        <v>-91</v>
       </c>
       <c r="J37" s="4">
-        <v>-236</v>
+        <v>-77</v>
       </c>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4">
-        <v>282</v>
+        <v>375</v>
       </c>
       <c r="C38" s="4">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="E38" s="4">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>349</v>
+        <v>73</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="I38" s="4">
-        <v>-218</v>
+        <v>-125</v>
       </c>
       <c r="J38" s="4">
-        <v>-41</v>
+        <v>-81</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4">
-        <v>321</v>
+        <v>502</v>
       </c>
       <c r="C39" s="4">
-        <v>438</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>359</v>
+        <v>652</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="E39" s="4">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>351</v>
+        <v>26</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="I39" s="4">
-        <v>-179</v>
+        <v>2</v>
       </c>
       <c r="J39" s="4">
-        <v>-62</v>
+        <v>152</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>357</v>
@@ -2930,205 +2935,205 @@
     </row>
     <row r="40" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="C40" s="4">
-        <v>725</v>
+        <v>484</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="E40" s="4">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>15</v>
+        <v>80</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="I40" s="4">
-        <v>-129</v>
+        <v>-140</v>
       </c>
       <c r="J40" s="4">
-        <v>225</v>
+        <v>-16</v>
       </c>
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4">
-        <v>286</v>
+        <v>433</v>
       </c>
       <c r="C41" s="4">
-        <v>602</v>
+        <v>627</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="E41" s="4">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>348</v>
       </c>
       <c r="H41" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I41" s="4">
+        <v>-67</v>
+      </c>
+      <c r="J41" s="4">
+        <v>127</v>
+      </c>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="I41" s="4">
-        <v>-214</v>
-      </c>
-      <c r="J41" s="4">
-        <v>102</v>
-      </c>
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>27</v>
-      </c>
       <c r="B42" s="4">
-        <v>399</v>
+        <v>550</v>
       </c>
       <c r="C42" s="4">
-        <v>575</v>
+        <v>632</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>88</v>
+        <v>244</v>
       </c>
       <c r="E42" s="4">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>348</v>
+        <v>51</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>354</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>89</v>
+        <v>245</v>
       </c>
       <c r="I42" s="4">
-        <v>-101</v>
+        <v>50</v>
       </c>
       <c r="J42" s="4">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B43" s="4">
-        <v>534</v>
+        <v>646</v>
       </c>
       <c r="C43" s="4">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>219</v>
+        <v>281</v>
       </c>
       <c r="E43" s="4">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>355</v>
+        <v>177</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>220</v>
+        <v>282</v>
       </c>
       <c r="I43" s="4">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="J43" s="4">
-        <v>-13</v>
+        <v>-28</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4">
-        <v>303</v>
+        <v>367</v>
       </c>
       <c r="C44" s="4">
-        <v>370</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>55</v>
+        <v>551</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="E44" s="4">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>349</v>
+        <v>21</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="I44" s="4">
-        <v>-197</v>
+        <v>-133</v>
       </c>
       <c r="J44" s="4">
-        <v>-130</v>
+        <v>51</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4">
-        <v>335</v>
+        <v>400</v>
       </c>
       <c r="C45" s="4">
-        <v>497</v>
+        <v>404</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="E45" s="4">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>349</v>
+        <v>45</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>351</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="I45" s="4">
-        <v>-165</v>
+        <v>-100</v>
       </c>
       <c r="J45" s="4">
-        <v>-3</v>
+        <v>-96</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>357</v>
@@ -3136,232 +3141,232 @@
     </row>
     <row r="46" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="B46" s="4">
-        <v>402</v>
+        <v>526</v>
       </c>
       <c r="C46" s="4">
-        <v>275</v>
+        <v>346</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>118</v>
+        <v>200</v>
       </c>
       <c r="E46" s="4">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>352</v>
+        <v>201</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="I46" s="4">
-        <v>-98</v>
+        <v>26</v>
       </c>
       <c r="J46" s="4">
-        <v>-225</v>
+        <v>-154</v>
       </c>
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="B47" s="4">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="C47" s="4">
-        <v>767</v>
+        <v>362</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="E47" s="4">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>15</v>
+        <v>131</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="I47" s="4">
-        <v>-3</v>
+        <v>-30</v>
       </c>
       <c r="J47" s="4">
-        <v>267</v>
+        <v>-138</v>
       </c>
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B48" s="4">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="C48" s="4">
-        <v>580</v>
+        <v>369</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="E48" s="4">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>349</v>
+        <v>45</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>351</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="I48" s="4">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J48" s="4">
-        <v>80</v>
+        <v>-131</v>
       </c>
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="B49" s="4">
-        <v>369</v>
+        <v>438</v>
       </c>
       <c r="C49" s="4">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="E49" s="4">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>352</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="I49" s="4">
-        <v>-131</v>
+        <v>-62</v>
       </c>
       <c r="J49" s="4">
-        <v>-167</v>
+        <v>-129</v>
       </c>
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="B50" s="4">
-        <v>297</v>
+        <v>626</v>
       </c>
       <c r="C50" s="4">
-        <v>584</v>
+        <v>440</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>32</v>
+        <v>292</v>
       </c>
       <c r="E50" s="4">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>15</v>
+        <v>56</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>33</v>
+        <v>293</v>
       </c>
       <c r="I50" s="4">
-        <v>-203</v>
+        <v>126</v>
       </c>
       <c r="J50" s="4">
-        <v>84</v>
+        <v>-60</v>
       </c>
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="B51" s="4">
-        <v>619</v>
+        <v>640</v>
       </c>
       <c r="C51" s="4">
-        <v>736</v>
+        <v>501</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="E51" s="4">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>15</v>
+        <v>134</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>355</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="I51" s="4">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="J51" s="4">
-        <v>236</v>
+        <v>1</v>
       </c>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B52" s="4">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="C52" s="4">
-        <v>564</v>
+        <v>512</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E52" s="4">
         <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>352</v>
+        <v>204</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I52" s="4">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="J52" s="4">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>357</v>
@@ -3369,102 +3374,102 @@
     </row>
     <row r="53" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B53" s="4">
-        <v>583</v>
+        <v>335</v>
       </c>
       <c r="C53" s="4">
-        <v>529</v>
+        <v>497</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="E53" s="4">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>351</v>
+        <v>56</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>232</v>
+        <v>78</v>
       </c>
       <c r="I53" s="4">
+        <v>-165</v>
+      </c>
+      <c r="J53" s="4">
+        <v>-3</v>
+      </c>
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4">
+        <v>338</v>
+      </c>
+      <c r="C54" s="4">
+        <v>457</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" s="4">
+        <v>34</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="J53" s="4">
-        <v>29</v>
-      </c>
-      <c r="K53" s="2"/>
-    </row>
-    <row r="54" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
-        <v>15</v>
-      </c>
-      <c r="B54" s="4">
-        <v>551</v>
-      </c>
-      <c r="C54" s="4">
-        <v>436</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E54" s="4">
-        <v>54</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="I54" s="4">
-        <v>51</v>
+        <v>-162</v>
       </c>
       <c r="J54" s="4">
-        <v>-64</v>
+        <v>-43</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="B55" s="4">
-        <v>518</v>
+        <v>661</v>
       </c>
       <c r="C55" s="4">
+        <v>457</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E55" s="4">
+        <v>64</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E55" s="4">
-        <v>52</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>353</v>
+      <c r="G55" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>188</v>
+        <v>285</v>
       </c>
       <c r="I55" s="4">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="J55" s="4">
-        <v>-216</v>
+        <v>-43</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>357</v>
@@ -3472,67 +3477,67 @@
     </row>
     <row r="56" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="B56" s="4">
-        <v>278</v>
+        <v>396</v>
       </c>
       <c r="C56" s="4">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E56" s="4">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>348</v>
+        <v>45</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>351</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I56" s="4">
-        <v>-222</v>
+        <v>-104</v>
       </c>
       <c r="J56" s="4">
-        <v>-136</v>
+        <v>-119</v>
       </c>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="B57" s="4">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="C57" s="4">
-        <v>307</v>
+        <v>628</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="E57" s="4">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>15</v>
+        <v>45</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>351</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="I57" s="4">
-        <v>-126</v>
+        <v>-113</v>
       </c>
       <c r="J57" s="4">
-        <v>-193</v>
+        <v>128</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>357</v>
@@ -3540,170 +3545,170 @@
     </row>
     <row r="58" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B58" s="4">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="C58" s="4">
-        <v>530</v>
+        <v>591</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="E58" s="4">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>15</v>
+        <v>91</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="I58" s="4">
-        <v>-96</v>
+        <v>-149</v>
       </c>
       <c r="J58" s="4">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="K58" s="2"/>
     </row>
     <row r="59" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="B59" s="4">
-        <v>257</v>
+        <v>613</v>
       </c>
       <c r="C59" s="4">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>20</v>
+        <v>261</v>
       </c>
       <c r="E59" s="4">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>350</v>
+        <v>26</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>22</v>
+        <v>262</v>
       </c>
       <c r="I59" s="4">
-        <v>-243</v>
+        <v>113</v>
       </c>
       <c r="J59" s="4">
-        <v>-90</v>
+        <v>-123</v>
       </c>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B60" s="4">
-        <v>648</v>
+        <v>579</v>
       </c>
       <c r="C60" s="4">
-        <v>623</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>312</v>
+        <v>638</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="E60" s="4">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>204</v>
+        <v>37</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>313</v>
+        <v>247</v>
       </c>
       <c r="I60" s="4">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="J60" s="4">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B61" s="4">
-        <v>470</v>
+        <v>642</v>
       </c>
       <c r="C61" s="4">
-        <v>362</v>
+        <v>579</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>130</v>
+        <v>303</v>
       </c>
       <c r="E61" s="4">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>353</v>
+        <v>304</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>132</v>
+        <v>305</v>
       </c>
       <c r="I61" s="4">
-        <v>-30</v>
+        <v>142</v>
       </c>
       <c r="J61" s="4">
-        <v>-138</v>
+        <v>79</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B62" s="4">
-        <v>701</v>
+        <v>549</v>
       </c>
       <c r="C62" s="4">
-        <v>591</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>340</v>
+        <v>350</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="E62" s="4">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>349</v>
+        <v>204</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>341</v>
+        <v>205</v>
       </c>
       <c r="I62" s="4">
-        <v>201</v>
+        <v>49</v>
       </c>
       <c r="J62" s="4">
-        <v>91</v>
+        <v>-150</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>357</v>
@@ -3711,135 +3716,135 @@
     </row>
     <row r="63" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="B63" s="4">
-        <v>757</v>
+        <v>350</v>
       </c>
       <c r="C63" s="4">
-        <v>428</v>
+        <v>569</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>330</v>
+        <v>95</v>
       </c>
       <c r="E63" s="4">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>15</v>
+        <v>96</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>331</v>
+        <v>97</v>
       </c>
       <c r="I63" s="4">
-        <v>257</v>
+        <v>-150</v>
       </c>
       <c r="J63" s="4">
-        <v>-72</v>
+        <v>69</v>
       </c>
       <c r="K63" s="2"/>
     </row>
     <row r="64" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B64" s="4">
-        <v>603</v>
+        <v>567</v>
       </c>
       <c r="C64" s="4">
-        <v>494</v>
+        <v>340</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>277</v>
+        <v>206</v>
       </c>
       <c r="E64" s="4">
+        <v>53</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I64" s="4">
+        <v>67</v>
+      </c>
+      <c r="J64" s="4">
+        <v>-160</v>
+      </c>
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I64" s="4">
-        <v>103</v>
-      </c>
-      <c r="J64" s="4">
-        <v>-6</v>
-      </c>
-      <c r="K64" s="2"/>
-    </row>
-    <row r="65" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
-        <v>118</v>
-      </c>
       <c r="B65" s="4">
-        <v>500</v>
+        <v>669</v>
       </c>
       <c r="C65" s="4">
-        <v>726</v>
+        <v>485</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="E65" s="4">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>354</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="I65" s="4">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="J65" s="4">
-        <v>226</v>
+        <v>-15</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="B66" s="4">
-        <v>590</v>
+        <v>648</v>
       </c>
       <c r="C66" s="4">
-        <v>705</v>
+        <v>409</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>362</v>
+        <v>288</v>
       </c>
       <c r="E66" s="4">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>349</v>
+        <v>91</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="I66" s="4">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="J66" s="4">
-        <v>205</v>
+        <v>-91</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>357</v>
@@ -3847,67 +3852,67 @@
     </row>
     <row r="67" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B67" s="4">
-        <v>289</v>
+        <v>433</v>
       </c>
       <c r="C67" s="4">
-        <v>564</v>
+        <v>341</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="E67" s="4">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>350</v>
+        <v>134</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>355</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="I67" s="4">
-        <v>-211</v>
+        <v>-67</v>
       </c>
       <c r="J67" s="4">
-        <v>64</v>
+        <v>-159</v>
       </c>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="B68" s="4">
-        <v>723</v>
+        <v>504</v>
       </c>
       <c r="C68" s="4">
-        <v>648</v>
+        <v>303</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>346</v>
+        <v>215</v>
       </c>
       <c r="E68" s="4">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>351</v>
+        <v>104</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>352</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>347</v>
+        <v>216</v>
       </c>
       <c r="I68" s="4">
-        <v>223</v>
+        <v>4</v>
       </c>
       <c r="J68" s="4">
-        <v>148</v>
+        <v>-197</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>357</v>
@@ -3915,199 +3920,199 @@
     </row>
     <row r="69" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="B69" s="4">
-        <v>512</v>
+        <v>687</v>
       </c>
       <c r="C69" s="4">
-        <v>629</v>
+        <v>564</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>242</v>
+        <v>297</v>
       </c>
       <c r="E69" s="4">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>349</v>
+        <v>298</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>352</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>243</v>
+        <v>299</v>
       </c>
       <c r="I69" s="4">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="J69" s="4">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="K69" s="2"/>
     </row>
     <row r="70" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4">
+        <v>321</v>
+      </c>
+      <c r="C70" s="4">
+        <v>438</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E70" s="4">
+        <v>34</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B70" s="4">
-        <v>526</v>
-      </c>
-      <c r="C70" s="4">
-        <v>346</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E70" s="4">
-        <v>53</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>348</v>
+      <c r="G70" s="8" t="s">
+        <v>351</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>202</v>
+        <v>87</v>
       </c>
       <c r="I70" s="4">
-        <v>26</v>
+        <v>-179</v>
       </c>
       <c r="J70" s="4">
-        <v>-154</v>
+        <v>-62</v>
       </c>
       <c r="K70" s="2"/>
     </row>
     <row r="71" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="B71" s="4">
-        <v>411</v>
+        <v>643</v>
       </c>
       <c r="C71" s="4">
-        <v>256</v>
+        <v>360</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>120</v>
+        <v>273</v>
       </c>
       <c r="E71" s="4">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>348</v>
+        <v>198</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>352</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>121</v>
+        <v>274</v>
       </c>
       <c r="I71" s="4">
-        <v>-89</v>
+        <v>143</v>
       </c>
       <c r="J71" s="4">
-        <v>-244</v>
+        <v>-140</v>
       </c>
       <c r="K71" s="2"/>
     </row>
     <row r="72" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="B72" s="4">
-        <v>605</v>
+        <v>308</v>
       </c>
       <c r="C72" s="4">
-        <v>433</v>
+        <v>466</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>279</v>
+        <v>75</v>
       </c>
       <c r="E72" s="4">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>351</v>
+        <v>14</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="I72" s="4">
-        <v>105</v>
+        <v>-192</v>
       </c>
       <c r="J72" s="4">
-        <v>-67</v>
+        <v>-34</v>
       </c>
       <c r="K72" s="2"/>
     </row>
     <row r="73" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="B73" s="4">
-        <v>430</v>
+        <v>363</v>
       </c>
       <c r="C73" s="4">
-        <v>513</v>
+        <v>639</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="E73" s="4">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>351</v>
+        <v>85</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="I73" s="4">
-        <v>-70</v>
+        <v>-137</v>
       </c>
       <c r="J73" s="4">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="B74" s="4">
-        <v>536</v>
+        <v>331</v>
       </c>
       <c r="C74" s="4">
-        <v>252</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>189</v>
+        <v>609</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="E74" s="4">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>354</v>
+        <v>104</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>352</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="I74" s="4">
-        <v>36</v>
+        <v>-169</v>
       </c>
       <c r="J74" s="4">
-        <v>-248</v>
+        <v>109</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>357</v>
@@ -4115,52 +4120,52 @@
     </row>
     <row r="75" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B75" s="4">
-        <v>351</v>
+        <v>648</v>
       </c>
       <c r="C75" s="4">
-        <v>591</v>
+        <v>623</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>90</v>
+        <v>312</v>
       </c>
       <c r="E75" s="4">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="G75" s="8" t="s">
         <v>350</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>92</v>
+        <v>313</v>
       </c>
       <c r="I75" s="4">
-        <v>-149</v>
+        <v>148</v>
       </c>
       <c r="J75" s="4">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="K75" s="2"/>
     </row>
     <row r="76" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="B76" s="4">
-        <v>678</v>
+        <v>451</v>
       </c>
       <c r="C76" s="4">
-        <v>312</v>
+        <v>674</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>267</v>
+        <v>174</v>
       </c>
       <c r="E76" s="4">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>14</v>
@@ -4169,46 +4174,46 @@
         <v>15</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>268</v>
+        <v>175</v>
       </c>
       <c r="I76" s="4">
-        <v>178</v>
+        <v>-49</v>
       </c>
       <c r="J76" s="4">
-        <v>-188</v>
+        <v>174</v>
       </c>
       <c r="K76" s="2"/>
     </row>
-    <row r="77" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B77" s="4">
-        <v>549</v>
+        <v>353</v>
       </c>
       <c r="C77" s="4">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>203</v>
+        <v>47</v>
       </c>
       <c r="E77" s="4">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>350</v>
+        <v>48</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>348</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>205</v>
+        <v>49</v>
       </c>
       <c r="I77" s="4">
-        <v>49</v>
+        <v>-147</v>
       </c>
       <c r="J77" s="4">
-        <v>-150</v>
+        <v>-131</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>357</v>
@@ -4216,120 +4221,120 @@
     </row>
     <row r="78" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="B78" s="4">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="C78" s="4">
-        <v>507</v>
+        <v>688</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="E78" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>352</v>
+        <v>56</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="I78" s="4">
-        <v>-13</v>
+        <v>-24</v>
       </c>
       <c r="J78" s="4">
-        <v>7</v>
+        <v>188</v>
       </c>
       <c r="K78" s="2"/>
     </row>
     <row r="79" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="B79" s="4">
-        <v>571</v>
+        <v>533</v>
       </c>
       <c r="C79" s="4">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="E79" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>349</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="I79" s="4">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="J79" s="4">
-        <v>-259</v>
+        <v>-185</v>
       </c>
       <c r="K79" s="2"/>
     </row>
-    <row r="80" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B80" s="4">
-        <v>724</v>
+        <v>507</v>
       </c>
       <c r="C80" s="4">
-        <v>590</v>
+        <v>694</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>342</v>
+        <v>238</v>
       </c>
       <c r="E80" s="4">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>350</v>
+        <v>234</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>343</v>
+        <v>239</v>
       </c>
       <c r="I80" s="4">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="J80" s="4">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B81" s="4">
-        <v>451</v>
+        <v>674</v>
       </c>
       <c r="C81" s="4">
-        <v>674</v>
+        <v>430</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>174</v>
+        <v>286</v>
       </c>
       <c r="E81" s="4">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>14</v>
@@ -4338,48 +4343,48 @@
         <v>15</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>175</v>
+        <v>287</v>
       </c>
       <c r="I81" s="4">
-        <v>-49</v>
+        <v>174</v>
       </c>
       <c r="J81" s="4">
-        <v>174</v>
+        <v>-70</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B82" s="4">
-        <v>296</v>
+        <v>582</v>
       </c>
       <c r="C82" s="4">
-        <v>493</v>
+        <v>661</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>23</v>
+        <v>248</v>
       </c>
       <c r="E82" s="4">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>350</v>
+        <v>14</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="I82" s="4">
-        <v>-204</v>
+        <v>82</v>
       </c>
       <c r="J82" s="4">
-        <v>-7</v>
+        <v>161</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>357</v>
@@ -4387,184 +4392,184 @@
     </row>
     <row r="83" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B83" s="4">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="C83" s="4">
-        <v>551</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>93</v>
+        <v>628</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="E83" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>350</v>
+        <v>113</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>352</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="I83" s="4">
-        <v>-133</v>
+        <v>-154</v>
       </c>
       <c r="J83" s="4">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="K83" s="2"/>
     </row>
     <row r="84" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="B84" s="4">
-        <v>646</v>
+        <v>670</v>
       </c>
       <c r="C84" s="4">
-        <v>472</v>
+        <v>597</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="E84" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>348</v>
+        <v>15</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="I84" s="4">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="J84" s="4">
-        <v>-28</v>
+        <v>97</v>
       </c>
       <c r="K84" s="2"/>
     </row>
     <row r="85" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="B85" s="4">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="C85" s="4">
-        <v>282</v>
+        <v>380</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E85" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>15</v>
+        <v>64</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>352</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="I85" s="4">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="J85" s="4">
-        <v>-218</v>
+        <v>-120</v>
       </c>
       <c r="K85" s="2"/>
     </row>
     <row r="86" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B86" s="4">
-        <v>641</v>
+        <v>701</v>
       </c>
       <c r="C86" s="4">
-        <v>682</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>317</v>
+        <v>591</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="E86" s="4">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>348</v>
+        <v>140</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="I86" s="4">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="J86" s="4">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="K86" s="2"/>
     </row>
     <row r="87" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B87" s="4">
-        <v>433</v>
+        <v>289</v>
       </c>
       <c r="C87" s="4">
-        <v>341</v>
+        <v>564</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="E87" s="4">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>355</v>
+        <v>21</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="I87" s="4">
-        <v>-67</v>
+        <v>-211</v>
       </c>
       <c r="J87" s="4">
-        <v>-159</v>
+        <v>64</v>
       </c>
       <c r="K87" s="2"/>
     </row>
     <row r="88" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="B88" s="4">
-        <v>263</v>
+        <v>524</v>
       </c>
       <c r="C88" s="4">
-        <v>434</v>
+        <v>719</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>25</v>
+        <v>253</v>
       </c>
       <c r="E88" s="4">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>26</v>
@@ -4573,182 +4578,182 @@
         <v>348</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="I88" s="4">
-        <v>-237</v>
+        <v>24</v>
       </c>
       <c r="J88" s="4">
-        <v>-66</v>
+        <v>219</v>
       </c>
       <c r="K88" s="2"/>
     </row>
     <row r="89" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B89" s="4">
-        <v>349</v>
+        <v>584</v>
       </c>
       <c r="C89" s="4">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="E89" s="4">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>352</v>
+        <v>14</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>65</v>
+        <v>212</v>
       </c>
       <c r="I89" s="4">
-        <v>-151</v>
+        <v>84</v>
       </c>
       <c r="J89" s="4">
-        <v>-171</v>
+        <v>-187</v>
       </c>
       <c r="K89" s="2"/>
     </row>
     <row r="90" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="B90" s="4">
-        <v>428</v>
+        <v>358</v>
       </c>
       <c r="C90" s="4">
-        <v>716</v>
+        <v>668</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="E90" s="4">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>351</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="I90" s="4">
-        <v>-72</v>
+        <v>-142</v>
       </c>
       <c r="J90" s="4">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" s="4">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="C91" s="4">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E91" s="4">
         <v>33</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>354</v>
+        <v>59</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>352</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I91" s="4">
-        <v>-168</v>
+        <v>-131</v>
       </c>
       <c r="J91" s="4">
-        <v>-146</v>
+        <v>-167</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="B92" s="4">
-        <v>449</v>
+        <v>332</v>
       </c>
       <c r="C92" s="4">
-        <v>242</v>
+        <v>354</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="E92" s="4">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="I92" s="4">
-        <v>-51</v>
+        <v>-168</v>
       </c>
       <c r="J92" s="4">
-        <v>-258</v>
+        <v>-146</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="B93" s="4">
-        <v>360</v>
+        <v>518</v>
       </c>
       <c r="C93" s="4">
-        <v>484</v>
+        <v>284</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="E93" s="4">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G93" s="9" t="s">
         <v>353</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="I93" s="4">
-        <v>-140</v>
+        <v>18</v>
       </c>
       <c r="J93" s="4">
-        <v>-16</v>
+        <v>-216</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>357</v>
@@ -4756,67 +4761,67 @@
     </row>
     <row r="94" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="B94" s="4">
-        <v>661</v>
+        <v>612</v>
       </c>
       <c r="C94" s="4">
-        <v>457</v>
+        <v>686</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="E94" s="4">
+        <v>66</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="I94" s="4">
+        <v>112</v>
+      </c>
+      <c r="J94" s="4">
+        <v>186</v>
+      </c>
+      <c r="K94" s="2"/>
+    </row>
+    <row r="95" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4">
+        <v>696</v>
+      </c>
+      <c r="C95" s="4">
+        <v>446</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E95" s="4">
         <v>64</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="G94" s="6" t="s">
+      <c r="F95" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G95" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="H94" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="I94" s="4">
-        <v>161</v>
-      </c>
-      <c r="J94" s="4">
-        <v>-43</v>
-      </c>
-      <c r="K94" s="2"/>
-    </row>
-    <row r="95" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="3">
-        <v>48</v>
-      </c>
-      <c r="B95" s="4">
-        <v>438</v>
-      </c>
-      <c r="C95" s="4">
-        <v>371</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E95" s="4">
-        <v>43</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>352</v>
-      </c>
       <c r="H95" s="2" t="s">
-        <v>138</v>
+        <v>296</v>
       </c>
       <c r="I95" s="4">
-        <v>-62</v>
+        <v>196</v>
       </c>
       <c r="J95" s="4">
-        <v>-129</v>
+        <v>-54</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>357</v>
@@ -4824,67 +4829,67 @@
     </row>
     <row r="96" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="B96" s="4">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="C96" s="4">
-        <v>690</v>
+        <v>647</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E96" s="4">
         <v>66</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G96" s="10" t="s">
         <v>352</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="I96" s="4">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="J96" s="4">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="K96" s="2"/>
     </row>
-    <row r="97" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B97" s="4">
-        <v>674</v>
+        <v>282</v>
       </c>
       <c r="C97" s="4">
-        <v>430</v>
+        <v>459</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="E97" s="4">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>287</v>
+        <v>19</v>
       </c>
       <c r="I97" s="4">
-        <v>174</v>
+        <v>-218</v>
       </c>
       <c r="J97" s="4">
-        <v>-70</v>
+        <v>-41</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>357</v>
@@ -4892,97 +4897,97 @@
     </row>
     <row r="98" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="B98" s="4">
-        <v>511</v>
+        <v>553</v>
       </c>
       <c r="C98" s="4">
-        <v>559</v>
+        <v>304</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="E98" s="4">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>348</v>
+        <v>198</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>352</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="I98" s="4">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="J98" s="4">
-        <v>59</v>
+        <v>-196</v>
       </c>
       <c r="K98" s="2"/>
     </row>
     <row r="99" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B99" s="4">
-        <v>746</v>
+        <v>719</v>
       </c>
       <c r="C99" s="4">
-        <v>519</v>
+        <v>467</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="E99" s="4">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>348</v>
+        <v>21</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="I99" s="4">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="J99" s="4">
-        <v>19</v>
+        <v>-33</v>
       </c>
       <c r="K99" s="2"/>
     </row>
     <row r="100" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="B100" s="4">
-        <v>433</v>
+        <v>320</v>
       </c>
       <c r="C100" s="4">
         <v>627</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="E100" s="4">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>348</v>
+        <v>15</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
       <c r="I100" s="4">
-        <v>-67</v>
+        <v>-180</v>
       </c>
       <c r="J100" s="4">
         <v>127</v>
@@ -4991,368 +4996,368 @@
     </row>
     <row r="101" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B101" s="4">
-        <v>699</v>
+        <v>590</v>
       </c>
       <c r="C101" s="4">
-        <v>361</v>
+        <v>705</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>269</v>
+        <v>362</v>
       </c>
       <c r="E101" s="4">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>350</v>
+        <v>257</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="I101" s="4">
-        <v>199</v>
+        <v>90</v>
       </c>
       <c r="J101" s="4">
-        <v>-139</v>
+        <v>205</v>
       </c>
       <c r="K101" s="2"/>
     </row>
     <row r="102" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="B102" s="4">
-        <v>667</v>
+        <v>302</v>
       </c>
       <c r="C102" s="4">
-        <v>512</v>
+        <v>398</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="E102" s="4">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>350</v>
+        <v>56</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>301</v>
+        <v>69</v>
       </c>
       <c r="I102" s="4">
-        <v>167</v>
+        <v>-198</v>
       </c>
       <c r="J102" s="4">
-        <v>12</v>
+        <v>-102</v>
       </c>
       <c r="K102" s="2"/>
     </row>
     <row r="103" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="B103" s="4">
-        <v>468</v>
+        <v>722</v>
       </c>
       <c r="C103" s="4">
-        <v>589</v>
+        <v>518</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="E103" s="4">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>348</v>
+        <v>134</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>355</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>167</v>
+        <v>335</v>
       </c>
       <c r="I103" s="4">
-        <v>-32</v>
+        <v>222</v>
       </c>
       <c r="J103" s="4">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="K103" s="2"/>
     </row>
     <row r="104" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="B104" s="4">
-        <v>648</v>
+        <v>297</v>
       </c>
       <c r="C104" s="4">
-        <v>409</v>
+        <v>584</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>288</v>
+        <v>32</v>
       </c>
       <c r="E104" s="4">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>350</v>
+        <v>14</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>289</v>
+        <v>33</v>
       </c>
       <c r="I104" s="4">
-        <v>148</v>
+        <v>-203</v>
       </c>
       <c r="J104" s="4">
-        <v>-91</v>
+        <v>84</v>
       </c>
       <c r="K104" s="2"/>
     </row>
     <row r="105" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="B105" s="4">
-        <v>601</v>
+        <v>296</v>
       </c>
       <c r="C105" s="4">
-        <v>412</v>
+        <v>493</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>290</v>
+        <v>23</v>
       </c>
       <c r="E105" s="4">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G105" s="9" t="s">
-        <v>354</v>
+        <v>21</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>291</v>
+        <v>24</v>
       </c>
       <c r="I105" s="4">
-        <v>101</v>
+        <v>-204</v>
       </c>
       <c r="J105" s="4">
-        <v>-88</v>
+        <v>-7</v>
       </c>
       <c r="K105" s="2"/>
     </row>
     <row r="106" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
+        <v>105</v>
+      </c>
+      <c r="B106" s="4">
+        <v>374</v>
+      </c>
+      <c r="C106" s="4">
+        <v>307</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E106" s="4">
+        <v>33</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B106" s="4">
-        <v>350</v>
-      </c>
-      <c r="C106" s="4">
-        <v>569</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E106" s="4">
-        <v>35</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="I106" s="4">
-        <v>-150</v>
+        <v>-126</v>
       </c>
       <c r="J106" s="4">
-        <v>69</v>
+        <v>-193</v>
       </c>
       <c r="K106" s="2"/>
     </row>
     <row r="107" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B107" s="4">
-        <v>721</v>
+        <v>641</v>
       </c>
       <c r="C107" s="4">
-        <v>436</v>
+        <v>682</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="E107" s="4">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="G107" s="6" t="s">
         <v>348</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="I107" s="4">
-        <v>221</v>
+        <v>141</v>
       </c>
       <c r="J107" s="4">
-        <v>-64</v>
+        <v>182</v>
       </c>
       <c r="K107" s="2"/>
     </row>
     <row r="108" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="B108" s="4">
-        <v>550</v>
+        <v>349</v>
       </c>
       <c r="C108" s="4">
-        <v>632</v>
+        <v>329</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>244</v>
+        <v>63</v>
       </c>
       <c r="E108" s="4">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G108" s="9" t="s">
-        <v>354</v>
+        <v>64</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>352</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>245</v>
+        <v>65</v>
       </c>
       <c r="I108" s="4">
-        <v>50</v>
+        <v>-151</v>
       </c>
       <c r="J108" s="4">
-        <v>132</v>
+        <v>-171</v>
       </c>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B109" s="4">
-        <v>258</v>
+        <v>402</v>
       </c>
       <c r="C109" s="4">
-        <v>536</v>
+        <v>275</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="E109" s="4">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>351</v>
+        <v>64</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>352</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="I109" s="4">
-        <v>-242</v>
+        <v>-98</v>
       </c>
       <c r="J109" s="4">
-        <v>36</v>
+        <v>-225</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="B110" s="4">
-        <v>372</v>
+        <v>699</v>
       </c>
       <c r="C110" s="4">
-        <v>503</v>
+        <v>361</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>98</v>
+        <v>269</v>
       </c>
       <c r="E110" s="4">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>99</v>
+        <v>270</v>
       </c>
       <c r="I110" s="4">
-        <v>-128</v>
+        <v>199</v>
       </c>
       <c r="J110" s="4">
-        <v>3</v>
+        <v>-139</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="B111" s="4">
-        <v>502</v>
+        <v>258</v>
       </c>
       <c r="C111" s="4">
-        <v>455</v>
+        <v>536</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c r="E111" s="4">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G111" s="10" t="s">
-        <v>352</v>
+        <v>37</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>351</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>225</v>
+        <v>38</v>
       </c>
       <c r="I111" s="4">
-        <v>2</v>
+        <v>-242</v>
       </c>
       <c r="J111" s="4">
-        <v>-45</v>
+        <v>36</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>357</v>
@@ -5360,85 +5365,85 @@
     </row>
     <row r="112" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B112" s="4">
-        <v>282</v>
+        <v>568</v>
       </c>
       <c r="C112" s="4">
-        <v>413</v>
+        <v>264</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="E112" s="4">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="I112" s="4">
-        <v>-218</v>
+        <v>68</v>
       </c>
       <c r="J112" s="4">
-        <v>-87</v>
+        <v>-236</v>
       </c>
       <c r="K112" s="2"/>
     </row>
     <row r="113" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="B113" s="4">
-        <v>475</v>
+        <v>721</v>
       </c>
       <c r="C113" s="4">
-        <v>532</v>
+        <v>436</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>168</v>
+        <v>332</v>
       </c>
       <c r="E113" s="4">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G113" s="10" t="s">
-        <v>352</v>
+        <v>26</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>169</v>
+        <v>333</v>
       </c>
       <c r="I113" s="4">
-        <v>-25</v>
+        <v>221</v>
       </c>
       <c r="J113" s="4">
-        <v>32</v>
+        <v>-64</v>
       </c>
       <c r="K113" s="2"/>
     </row>
-    <row r="114" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="B114" s="4">
-        <v>476</v>
+        <v>303</v>
       </c>
       <c r="C114" s="4">
-        <v>688</v>
+        <v>370</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="E114" s="4">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>56</v>
@@ -5447,13 +5452,13 @@
         <v>349</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="I114" s="4">
-        <v>-24</v>
+        <v>-197</v>
       </c>
       <c r="J114" s="4">
-        <v>188</v>
+        <v>-130</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>357</v>
@@ -5461,52 +5466,52 @@
     </row>
     <row r="115" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="B115" s="4">
-        <v>387</v>
+        <v>746</v>
       </c>
       <c r="C115" s="4">
-        <v>628</v>
+        <v>519</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>108</v>
+        <v>344</v>
       </c>
       <c r="E115" s="4">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G115" s="8" t="s">
-        <v>351</v>
+        <v>26</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>109</v>
+        <v>345</v>
       </c>
       <c r="I115" s="4">
-        <v>-113</v>
+        <v>246</v>
       </c>
       <c r="J115" s="4">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="K115" s="2"/>
     </row>
-    <row r="116" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
+        <v>115</v>
+      </c>
+      <c r="B116" s="4">
+        <v>665</v>
+      </c>
+      <c r="C116" s="4">
+        <v>334</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E116" s="4">
         <v>63</v>
-      </c>
-      <c r="B116" s="4">
-        <v>567</v>
-      </c>
-      <c r="C116" s="4">
-        <v>340</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E116" s="4">
-        <v>53</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>45</v>
@@ -5515,48 +5520,48 @@
         <v>351</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>207</v>
+        <v>272</v>
       </c>
       <c r="I116" s="4">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="J116" s="4">
-        <v>-160</v>
+        <v>-166</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="B117" s="4">
-        <v>579</v>
+        <v>740</v>
       </c>
       <c r="C117" s="4">
-        <v>638</v>
+        <v>485</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>246</v>
+        <v>328</v>
       </c>
       <c r="E117" s="4">
+        <v>74</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>351</v>
+      <c r="G117" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="I117" s="4">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="J117" s="4">
-        <v>138</v>
+        <v>-15</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>357</v>
@@ -5564,73 +5569,73 @@
     </row>
     <row r="118" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B118" s="4">
-        <v>665</v>
+        <v>263</v>
       </c>
       <c r="C118" s="4">
-        <v>334</v>
+        <v>434</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>271</v>
+        <v>25</v>
       </c>
       <c r="E118" s="4">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G118" s="8" t="s">
-        <v>351</v>
+        <v>26</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>272</v>
+        <v>27</v>
       </c>
       <c r="I118" s="4">
-        <v>165</v>
+        <v>-237</v>
       </c>
       <c r="J118" s="4">
-        <v>-166</v>
+        <v>-66</v>
       </c>
       <c r="K118" s="2"/>
     </row>
-    <row r="119" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="B119" s="4">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="C119" s="4">
-        <v>374</v>
+        <v>726</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="E119" s="4">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>350</v>
+        <v>14</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="I119" s="4">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J119" s="4">
-        <v>-126</v>
+        <v>226</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -5667,137 +5672,137 @@
     </row>
     <row r="121" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B121" s="4">
-        <v>283</v>
+        <v>724</v>
       </c>
       <c r="C121" s="4">
-        <v>638</v>
+        <v>590</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>42</v>
+        <v>342</v>
       </c>
       <c r="E121" s="4">
+        <v>75</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="I121" s="4">
+        <v>224</v>
+      </c>
+      <c r="J121" s="4">
+        <v>90</v>
+      </c>
+      <c r="K121" s="2"/>
+    </row>
+    <row r="122" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="3">
+        <v>121</v>
+      </c>
+      <c r="B122" s="4">
+        <v>286</v>
+      </c>
+      <c r="C122" s="4">
+        <v>602</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E122" s="4">
         <v>26</v>
       </c>
-      <c r="F121" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I121" s="4">
-        <v>-217</v>
-      </c>
-      <c r="J121" s="4">
-        <v>138</v>
-      </c>
-      <c r="K121" s="2"/>
-    </row>
-    <row r="122" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="3">
-        <v>81</v>
-      </c>
-      <c r="B122" s="4">
-        <v>582</v>
-      </c>
-      <c r="C122" s="4">
-        <v>661</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E122" s="4">
-        <v>56</v>
-      </c>
       <c r="F122" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>15</v>
+        <v>348</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="I122" s="4">
-        <v>82</v>
+        <v>-214</v>
       </c>
       <c r="J122" s="4">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="B123" s="4">
-        <v>611</v>
+        <v>735</v>
       </c>
       <c r="C123" s="4">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="E123" s="4">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G123" s="10" t="s">
-        <v>352</v>
+        <v>166</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="I123" s="4">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="J123" s="4">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="B124" s="4">
-        <v>338</v>
+        <v>428</v>
       </c>
       <c r="C124" s="4">
-        <v>457</v>
+        <v>716</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="E124" s="4">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="I124" s="4">
-        <v>-162</v>
+        <v>-72</v>
       </c>
       <c r="J124" s="4">
-        <v>-43</v>
+        <v>216</v>
       </c>
       <c r="K124" s="2" t="s">
         <v>357</v>
@@ -5805,87 +5810,87 @@
     </row>
     <row r="125" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B125" s="4">
-        <v>655</v>
+        <v>579</v>
       </c>
       <c r="C125" s="4">
-        <v>647</v>
+        <v>287</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>319</v>
+        <v>193</v>
       </c>
       <c r="E125" s="4">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G125" s="10" t="s">
-        <v>352</v>
+        <v>14</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>321</v>
+        <v>194</v>
       </c>
       <c r="I125" s="4">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="J125" s="4">
-        <v>147</v>
+        <v>-213</v>
       </c>
       <c r="K125" s="2"/>
     </row>
-    <row r="126" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="B126" s="4">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="C126" s="4">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="E126" s="4">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G126" s="10" t="s">
-        <v>352</v>
+        <v>14</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="I126" s="4">
-        <v>-91</v>
+        <v>-218</v>
       </c>
       <c r="J126" s="4">
-        <v>-77</v>
+        <v>-87</v>
       </c>
       <c r="K126" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="B127" s="4">
-        <v>584</v>
+        <v>713</v>
       </c>
       <c r="C127" s="4">
-        <v>313</v>
+        <v>400</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>211</v>
+        <v>326</v>
       </c>
       <c r="E127" s="4">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>14</v>
@@ -5894,48 +5899,48 @@
         <v>15</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>212</v>
+        <v>327</v>
       </c>
       <c r="I127" s="4">
-        <v>84</v>
+        <v>213</v>
       </c>
       <c r="J127" s="4">
-        <v>-187</v>
+        <v>-100</v>
       </c>
       <c r="K127" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="B128" s="4">
-        <v>380</v>
+        <v>648</v>
       </c>
       <c r="C128" s="4">
-        <v>460</v>
+        <v>282</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>84</v>
+        <v>259</v>
       </c>
       <c r="E128" s="4">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G128" s="9" t="s">
-        <v>353</v>
+        <v>14</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>86</v>
+        <v>260</v>
       </c>
       <c r="I128" s="4">
-        <v>-120</v>
+        <v>148</v>
       </c>
       <c r="J128" s="4">
-        <v>-40</v>
+        <v>-218</v>
       </c>
       <c r="K128" s="2" t="s">
         <v>357</v>
@@ -5943,67 +5948,67 @@
     </row>
     <row r="129" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
+        <v>128</v>
+      </c>
+      <c r="B129" s="4">
+        <v>678</v>
+      </c>
+      <c r="C129" s="4">
+        <v>312</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E129" s="4">
+        <v>63</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I129" s="4">
+        <v>178</v>
+      </c>
+      <c r="J129" s="4">
+        <v>-188</v>
+      </c>
+      <c r="K129" s="2"/>
+    </row>
+    <row r="130" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="3">
+        <v>129</v>
+      </c>
+      <c r="B130" s="4">
+        <v>278</v>
+      </c>
+      <c r="C130" s="4">
+        <v>364</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" s="4">
+        <v>23</v>
+      </c>
+      <c r="F130" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B129" s="4">
-        <v>456</v>
-      </c>
-      <c r="C129" s="4">
-        <v>571</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E129" s="4">
-        <v>45</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G129" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="I129" s="4">
-        <v>-44</v>
-      </c>
-      <c r="J129" s="4">
-        <v>71</v>
-      </c>
-      <c r="K129" s="2"/>
-    </row>
-    <row r="130" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="3">
-        <v>124</v>
-      </c>
-      <c r="B130" s="4">
-        <v>579</v>
-      </c>
-      <c r="C130" s="4">
-        <v>287</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E130" s="4">
-        <v>52</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" s="6" t="s">
-        <v>15</v>
+      <c r="G130" s="5" t="s">
+        <v>348</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="I130" s="4">
-        <v>79</v>
+        <v>-222</v>
       </c>
       <c r="J130" s="4">
-        <v>-213</v>
+        <v>-136</v>
       </c>
       <c r="K130" s="2" t="s">
         <v>357</v>
@@ -6011,102 +6016,102 @@
     </row>
     <row r="131" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B131" s="4">
-        <v>264</v>
+        <v>449</v>
       </c>
       <c r="C131" s="4">
-        <v>381</v>
+        <v>242</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="E131" s="4">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>15</v>
+        <v>85</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="I131" s="4">
-        <v>-236</v>
+        <v>-51</v>
       </c>
       <c r="J131" s="4">
-        <v>-119</v>
+        <v>-258</v>
       </c>
       <c r="K131" s="2"/>
     </row>
-    <row r="132" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="B132" s="4">
-        <v>643</v>
+        <v>257</v>
       </c>
       <c r="C132" s="4">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>273</v>
+        <v>20</v>
       </c>
       <c r="E132" s="4">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G132" s="10" t="s">
-        <v>352</v>
+        <v>21</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>274</v>
+        <v>22</v>
       </c>
       <c r="I132" s="4">
-        <v>143</v>
+        <v>-243</v>
       </c>
       <c r="J132" s="4">
-        <v>-140</v>
+        <v>-90</v>
       </c>
       <c r="K132" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="B133" s="4">
-        <v>402</v>
+        <v>264</v>
       </c>
       <c r="C133" s="4">
-        <v>476</v>
+        <v>381</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="E133" s="4">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>349</v>
+        <v>14</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I133" s="4">
-        <v>-98</v>
+        <v>-236</v>
       </c>
       <c r="J133" s="4">
-        <v>-24</v>
+        <v>-119</v>
       </c>
       <c r="K133" s="2" t="s">
         <v>357</v>
@@ -6114,19 +6119,19 @@
     </row>
     <row r="134" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="B134" s="4">
-        <v>320</v>
+        <v>371</v>
       </c>
       <c r="C134" s="4">
-        <v>627</v>
+        <v>725</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E134" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>14</v>
@@ -6135,147 +6140,147 @@
         <v>15</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I134" s="4">
-        <v>-180</v>
+        <v>-129</v>
       </c>
       <c r="J134" s="4">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c r="K134" s="2"/>
     </row>
     <row r="135" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="B135" s="4">
-        <v>346</v>
+        <v>497</v>
       </c>
       <c r="C135" s="4">
-        <v>628</v>
+        <v>767</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="E135" s="4">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G135" s="10" t="s">
-        <v>352</v>
+        <v>14</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="I135" s="4">
-        <v>-154</v>
+        <v>-3</v>
       </c>
       <c r="J135" s="4">
-        <v>128</v>
+        <v>267</v>
       </c>
       <c r="K135" s="2"/>
     </row>
     <row r="136" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="B136" s="4">
-        <v>642</v>
+        <v>571</v>
       </c>
       <c r="C136" s="4">
-        <v>579</v>
+        <v>241</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>303</v>
+        <v>191</v>
       </c>
       <c r="E136" s="4">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="G136" s="6" t="s">
-        <v>348</v>
+        <v>18</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>305</v>
+        <v>192</v>
       </c>
       <c r="I136" s="4">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="J136" s="4">
-        <v>79</v>
+        <v>-259</v>
       </c>
       <c r="K136" s="2"/>
     </row>
-    <row r="137" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="B137" s="4">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="C137" s="4">
-        <v>398</v>
+        <v>638</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="E137" s="4">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G137" s="7" t="s">
-        <v>349</v>
+        <v>14</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="I137" s="4">
-        <v>-198</v>
+        <v>-217</v>
       </c>
       <c r="J137" s="4">
-        <v>-102</v>
+        <v>138</v>
       </c>
       <c r="K137" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B138" s="4">
-        <v>306</v>
+        <v>723</v>
       </c>
       <c r="C138" s="4">
-        <v>317</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>70</v>
+        <v>648</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="E138" s="4">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G138" s="9" t="s">
-        <v>354</v>
+        <v>101</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>351</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>71</v>
+        <v>347</v>
       </c>
       <c r="I138" s="4">
-        <v>-194</v>
+        <v>223</v>
       </c>
       <c r="J138" s="4">
-        <v>-183</v>
+        <v>148</v>
       </c>
       <c r="K138" s="2" t="s">
         <v>357</v>
@@ -6283,85 +6288,85 @@
     </row>
     <row r="139" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="B139" s="4">
-        <v>640</v>
+        <v>256</v>
       </c>
       <c r="C139" s="4">
-        <v>501</v>
+        <v>605</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>306</v>
+        <v>44</v>
       </c>
       <c r="E139" s="4">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G139" s="5" t="s">
-        <v>355</v>
+        <v>45</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>351</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>307</v>
+        <v>46</v>
       </c>
       <c r="I139" s="4">
-        <v>140</v>
+        <v>-244</v>
       </c>
       <c r="J139" s="4">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="K139" s="2"/>
     </row>
     <row r="140" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="B140" s="4">
-        <v>489</v>
+        <v>698</v>
       </c>
       <c r="C140" s="4">
-        <v>597</v>
+        <v>325</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="E140" s="4">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="G140" s="6" t="s">
         <v>348</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>173</v>
+        <v>266</v>
       </c>
       <c r="I140" s="4">
-        <v>-11</v>
+        <v>198</v>
       </c>
       <c r="J140" s="4">
-        <v>97</v>
+        <v>-175</v>
       </c>
       <c r="K140" s="2"/>
     </row>
-    <row r="141" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="B141" s="4">
-        <v>528</v>
+        <v>751</v>
       </c>
       <c r="C141" s="4">
-        <v>454</v>
+        <v>570</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="E141" s="4">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>14</v>
@@ -6370,48 +6375,48 @@
         <v>15</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>226</v>
+        <v>337</v>
       </c>
       <c r="I141" s="4">
-        <v>28</v>
+        <v>251</v>
       </c>
       <c r="J141" s="4">
-        <v>-46</v>
+        <v>70</v>
       </c>
       <c r="K141" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="B142" s="4">
-        <v>670</v>
+        <v>536</v>
       </c>
       <c r="C142" s="4">
-        <v>597</v>
+        <v>252</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>308</v>
+        <v>189</v>
       </c>
       <c r="E142" s="4">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" s="6" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>354</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>309</v>
+        <v>190</v>
       </c>
       <c r="I142" s="4">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="J142" s="4">
-        <v>97</v>
+        <v>-248</v>
       </c>
       <c r="K142" s="2" t="s">
         <v>357</v>
@@ -6419,166 +6424,166 @@
     </row>
     <row r="143" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="B143" s="4">
-        <v>486</v>
+        <v>757</v>
       </c>
       <c r="C143" s="4">
-        <v>479</v>
+        <v>428</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="E143" s="4">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" s="7" t="s">
-        <v>349</v>
+        <v>14</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>151</v>
+        <v>331</v>
       </c>
       <c r="I143" s="4">
-        <v>-14</v>
+        <v>257</v>
       </c>
       <c r="J143" s="4">
-        <v>-21</v>
+        <v>-72</v>
       </c>
       <c r="K143" s="2"/>
     </row>
     <row r="144" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="B144" s="4">
-        <v>626</v>
+        <v>246</v>
       </c>
       <c r="C144" s="4">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>292</v>
+        <v>30</v>
       </c>
       <c r="E144" s="4">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>349</v>
+        <v>26</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>293</v>
+        <v>31</v>
       </c>
       <c r="I144" s="4">
-        <v>126</v>
+        <v>-254</v>
       </c>
       <c r="J144" s="4">
-        <v>-60</v>
+        <v>-3</v>
       </c>
       <c r="K144" s="2"/>
     </row>
     <row r="145" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="B145" s="4">
-        <v>554</v>
+        <v>306</v>
       </c>
       <c r="C145" s="4">
-        <v>504</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>236</v>
+        <v>317</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="E145" s="4">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G145" s="8" t="s">
-        <v>351</v>
+        <v>51</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>354</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>237</v>
+        <v>71</v>
       </c>
       <c r="I145" s="4">
-        <v>54</v>
+        <v>-194</v>
       </c>
       <c r="J145" s="4">
-        <v>4</v>
+        <v>-183</v>
       </c>
       <c r="K145" s="2"/>
     </row>
     <row r="146" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="B146" s="4">
-        <v>696</v>
+        <v>341</v>
       </c>
       <c r="C146" s="4">
-        <v>446</v>
+        <v>306</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>294</v>
+        <v>50</v>
       </c>
       <c r="E146" s="4">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="G146" s="11" t="s">
-        <v>348</v>
+        <v>51</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>354</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>296</v>
+        <v>52</v>
       </c>
       <c r="I146" s="4">
-        <v>196</v>
+        <v>-159</v>
       </c>
       <c r="J146" s="4">
-        <v>-54</v>
+        <v>-194</v>
       </c>
       <c r="K146" s="2"/>
     </row>
-    <row r="147" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="B147" s="4">
-        <v>533</v>
+        <v>666</v>
       </c>
       <c r="C147" s="4">
+        <v>690</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E147" s="4">
+        <v>66</v>
+      </c>
+      <c r="F147" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D147" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E147" s="4">
-        <v>53</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G147" s="7" t="s">
-        <v>349</v>
+      <c r="G147" s="10" t="s">
+        <v>352</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>214</v>
+        <v>316</v>
       </c>
       <c r="I147" s="4">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="J147" s="4">
-        <v>-185</v>
+        <v>190</v>
       </c>
       <c r="K147" s="2" t="s">
         <v>357</v>
@@ -6586,100 +6591,100 @@
     </row>
     <row r="148" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="B148" s="4">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="C148" s="4">
-        <v>404</v>
+        <v>256</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="E148" s="4">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G148" s="8" t="s">
-        <v>351</v>
+        <v>26</v>
+      </c>
+      <c r="G148" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="I148" s="4">
-        <v>-100</v>
+        <v>-89</v>
       </c>
       <c r="J148" s="4">
-        <v>-96</v>
+        <v>-244</v>
       </c>
       <c r="K148" s="2"/>
     </row>
     <row r="149" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B149" s="4">
-        <v>256</v>
+        <v>524</v>
       </c>
       <c r="C149" s="4">
-        <v>605</v>
+        <v>750</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="E149" s="4">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G149" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I149" s="4">
+        <v>24</v>
+      </c>
+      <c r="J149" s="4">
+        <v>250</v>
+      </c>
+      <c r="K149" s="2"/>
+    </row>
+    <row r="150" spans="1:11" ht="21.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="3">
+        <v>149</v>
+      </c>
+      <c r="B150" s="4">
+        <v>480</v>
+      </c>
+      <c r="C150" s="4">
+        <v>246</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E150" s="4">
+        <v>42</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G150" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="H149" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I149" s="4">
-        <v>-244</v>
-      </c>
-      <c r="J149" s="4">
-        <v>105</v>
-      </c>
-      <c r="K149" s="2"/>
-    </row>
-    <row r="150" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="3">
-        <v>67</v>
-      </c>
-      <c r="B150" s="4">
-        <v>504</v>
-      </c>
-      <c r="C150" s="4">
-        <v>303</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E150" s="4">
-        <v>53</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G150" s="10" t="s">
-        <v>352</v>
-      </c>
       <c r="H150" s="2" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="I150" s="4">
-        <v>4</v>
+        <v>-20</v>
       </c>
       <c r="J150" s="4">
-        <v>-197</v>
+        <v>-254</v>
       </c>
       <c r="K150" s="2" t="s">
         <v>357</v>
@@ -6687,34 +6692,34 @@
     </row>
     <row r="151" spans="1:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B151" s="4">
-        <v>246</v>
+        <v>619</v>
       </c>
       <c r="C151" s="4">
-        <v>497</v>
+        <v>736</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>30</v>
+        <v>322</v>
       </c>
       <c r="E151" s="4">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>348</v>
+        <v>15</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>31</v>
+        <v>323</v>
       </c>
       <c r="I151" s="4">
-        <v>-254</v>
+        <v>119</v>
       </c>
       <c r="J151" s="4">
-        <v>-3</v>
+        <v>236</v>
       </c>
       <c r="K151" s="2"/>
     </row>
@@ -17769,10 +17774,10 @@
       <c r="K1001" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{6AA553AD-7488-4E19-BD67-4BAEBB106A2F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J151">
-      <sortCondition ref="D1"/>
-    </sortState>
+  <autoFilter ref="A1:K151" xr:uid="{6AA553AD-7488-4E19-BD67-4BAEBB106A2F}">
+    <filterColumn colId="10">
+      <filters blank="1"/>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/temples.xlsx
+++ b/temples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\stive\Projects\Grepolis\grepo-map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217CDA8D-3FC5-4D74-A683-4FD47E597DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E199689C-AA40-46C6-AAB5-093137C828A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!A1:K151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$K$151</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="364">
   <si>
     <t>ID</t>
   </si>
@@ -70,6 +70,9 @@
     <t>[temple]1[/temple]</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Gangra</t>
   </si>
   <si>
@@ -82,28 +85,28 @@
     <t>[temple]2[/temple]</t>
   </si>
   <si>
+    <t>Percote</t>
+  </si>
+  <si>
+    <t>Augmente toutes les valeurs offensives des armes Contondant de 8%</t>
+  </si>
+  <si>
+    <t>[temple]3[/temple]</t>
+  </si>
+  <si>
+    <t>Thronium</t>
+  </si>
+  <si>
+    <t>Augmente la valeur defensive des Combattants a l'epee de 15%</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>[temple]4[/temple]</t>
+  </si>
+  <si>
     <t>true</t>
-  </si>
-  <si>
-    <t>Percote</t>
-  </si>
-  <si>
-    <t>Augmente toutes les valeurs offensives des armes Contondant de 8%</t>
-  </si>
-  <si>
-    <t>[temple]3[/temple]</t>
-  </si>
-  <si>
-    <t>Thronium</t>
-  </si>
-  <si>
-    <t>Augmente la valeur defensive des Combattants a l'epee de 15%</t>
-  </si>
-  <si>
-    <t>DEF</t>
-  </si>
-  <si>
-    <t>[temple]4[/temple]</t>
   </si>
   <si>
     <t>Thèbes</t>
@@ -1483,10 +1486,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,7 +1530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1557,8 +1561,11 @@
       <c r="J2">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1569,19 +1576,19 @@
         <v>487</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3">
         <v>34</v>
@@ -1590,10 +1597,10 @@
         <v>-13</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1624,78 +1631,81 @@
       <c r="J4">
         <v>32</v>
       </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="B5">
-        <v>486</v>
+        <v>612</v>
       </c>
       <c r="C5">
-        <v>479</v>
+        <v>686</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>242</v>
       </c>
       <c r="E5">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="I5">
-        <v>-14</v>
+        <v>112</v>
       </c>
       <c r="J5">
-        <v>-21</v>
+        <v>186</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B6">
-        <v>528</v>
+        <v>358</v>
       </c>
       <c r="C6">
-        <v>454</v>
+        <v>668</v>
       </c>
       <c r="D6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>233</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>234</v>
+      </c>
+      <c r="I6">
+        <v>-142</v>
+      </c>
+      <c r="J6">
+        <v>168</v>
+      </c>
+      <c r="K6" t="s">
         <v>27</v>
       </c>
-      <c r="E6">
-        <v>54</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6">
-        <v>28</v>
-      </c>
-      <c r="J6">
-        <v>-46</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1706,7 +1716,7 @@
         <v>560</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>45</v>
@@ -1718,7 +1728,7 @@
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I7">
         <v>-13</v>
@@ -1727,10 +1737,10 @@
         <v>60</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1741,19 +1751,19 @@
         <v>559</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I8">
         <v>11</v>
@@ -1762,45 +1772,45 @@
         <v>59</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="B9">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="C9">
-        <v>455</v>
+        <v>246</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>360</v>
       </c>
       <c r="E9">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>361</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>-20</v>
       </c>
       <c r="J9">
-        <v>-45</v>
+        <v>-254</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1811,19 +1821,19 @@
         <v>504</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10">
         <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I10">
         <v>54</v>
@@ -1831,8 +1841,11 @@
       <c r="J10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1843,19 +1856,19 @@
         <v>432</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11">
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I11">
         <v>-45</v>
@@ -1863,8 +1876,11 @@
       <c r="J11">
         <v>-68</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1875,19 +1891,19 @@
         <v>571</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I12">
         <v>-44</v>
@@ -1895,8 +1911,11 @@
       <c r="J12">
         <v>71</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1907,19 +1926,19 @@
         <v>490</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I13">
         <v>-68</v>
@@ -1927,8 +1946,11 @@
       <c r="J13">
         <v>-10</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1939,19 +1961,19 @@
         <v>529</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E14">
         <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I14">
         <v>83</v>
@@ -1959,8 +1981,11 @@
       <c r="J14">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1971,19 +1996,19 @@
         <v>485</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15">
         <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I15">
         <v>81</v>
@@ -1991,43 +2016,46 @@
       <c r="J15">
         <v>-15</v>
       </c>
+      <c r="K15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="B16">
-        <v>551</v>
+        <v>740</v>
       </c>
       <c r="C16">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>291</v>
       </c>
       <c r="E16">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>292</v>
       </c>
       <c r="I16">
-        <v>51</v>
+        <v>240</v>
       </c>
       <c r="J16">
-        <v>-64</v>
+        <v>-15</v>
       </c>
       <c r="K16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2038,19 +2066,19 @@
         <v>513</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17">
         <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I17">
         <v>-70</v>
@@ -2059,10 +2087,10 @@
         <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2073,19 +2101,19 @@
         <v>530</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E18">
         <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I18">
         <v>-96</v>
@@ -2094,10 +2122,10 @@
         <v>30</v>
       </c>
       <c r="K18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2108,19 +2136,19 @@
         <v>597</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E19">
         <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I19">
         <v>46</v>
@@ -2129,10 +2157,10 @@
         <v>97</v>
       </c>
       <c r="K19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2143,19 +2171,19 @@
         <v>589</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E20">
         <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I20">
         <v>-32</v>
@@ -2163,8 +2191,11 @@
       <c r="J20">
         <v>89</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2175,19 +2206,19 @@
         <v>501</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E21">
         <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I21">
         <v>-100</v>
@@ -2195,8 +2226,11 @@
       <c r="J21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2207,19 +2241,19 @@
         <v>461</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E22">
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I22">
         <v>-83</v>
@@ -2227,8 +2261,11 @@
       <c r="J22">
         <v>-39</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2239,19 +2276,19 @@
         <v>494</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I23">
         <v>103</v>
@@ -2259,8 +2296,11 @@
       <c r="J23">
         <v>-6</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2271,19 +2311,19 @@
         <v>580</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E24">
         <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s">
         <v>25</v>
       </c>
       <c r="H24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I24">
         <v>69</v>
@@ -2291,8 +2331,11 @@
       <c r="J24">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2303,19 +2346,19 @@
         <v>597</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E25">
         <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I25">
         <v>-11</v>
@@ -2323,78 +2366,81 @@
       <c r="J25">
         <v>97</v>
       </c>
+      <c r="K25" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="B26">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="C26">
-        <v>476</v>
+        <v>306</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>350</v>
       </c>
       <c r="E26">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="H26" t="s">
-        <v>83</v>
+        <v>351</v>
       </c>
       <c r="I26">
-        <v>-98</v>
+        <v>-159</v>
       </c>
       <c r="J26">
-        <v>-24</v>
+        <v>-194</v>
       </c>
       <c r="K26" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="B27">
-        <v>517</v>
+        <v>331</v>
       </c>
       <c r="C27">
-        <v>374</v>
+        <v>609</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="E27">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="G27" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>87</v>
+        <v>199</v>
       </c>
       <c r="I27">
-        <v>17</v>
+        <v>-169</v>
       </c>
       <c r="J27">
-        <v>-126</v>
+        <v>109</v>
       </c>
       <c r="K27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2405,19 +2451,19 @@
         <v>575</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E28">
         <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I28">
         <v>-101</v>
@@ -2426,45 +2472,45 @@
         <v>75</v>
       </c>
       <c r="K28" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>611</v>
+        <v>469</v>
       </c>
       <c r="C29">
-        <v>574</v>
+        <v>389</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="E29">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H29" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="I29">
-        <v>111</v>
+        <v>-31</v>
       </c>
       <c r="J29">
-        <v>74</v>
+        <v>-111</v>
       </c>
       <c r="K29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2475,19 +2521,19 @@
         <v>433</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E30">
         <v>64</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I30">
         <v>105</v>
@@ -2495,8 +2541,11 @@
       <c r="J30">
         <v>-67</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2507,19 +2556,19 @@
         <v>629</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E31">
         <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G31" t="s">
         <v>25</v>
       </c>
       <c r="H31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I31">
         <v>12</v>
@@ -2528,45 +2577,45 @@
         <v>129</v>
       </c>
       <c r="K31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B32">
-        <v>372</v>
+        <v>308</v>
       </c>
       <c r="C32">
-        <v>503</v>
+        <v>466</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="E32">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H32" t="s">
-        <v>98</v>
+        <v>195</v>
       </c>
       <c r="I32">
-        <v>-128</v>
+        <v>-192</v>
       </c>
       <c r="J32">
-        <v>3</v>
+        <v>-34</v>
       </c>
       <c r="K32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2577,19 +2626,19 @@
         <v>412</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E33">
         <v>64</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I33">
         <v>101</v>
@@ -2597,8 +2646,11 @@
       <c r="J33">
         <v>-88</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2609,7 +2661,7 @@
         <v>369</v>
       </c>
       <c r="D34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E34">
         <v>43</v>
@@ -2621,7 +2673,7 @@
         <v>13</v>
       </c>
       <c r="H34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I34">
         <v>-10</v>
@@ -2629,113 +2681,116 @@
       <c r="J34">
         <v>-131</v>
       </c>
+      <c r="K34" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="B35">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="C35">
-        <v>460</v>
+        <v>639</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>196</v>
       </c>
       <c r="E35">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H35" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="I35">
-        <v>-120</v>
+        <v>-137</v>
       </c>
       <c r="J35">
-        <v>-40</v>
+        <v>139</v>
       </c>
       <c r="K35" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="B36">
-        <v>469</v>
+        <v>553</v>
       </c>
       <c r="C36">
-        <v>389</v>
+        <v>304</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>252</v>
       </c>
       <c r="E36">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F36" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H36" t="s">
-        <v>108</v>
+        <v>253</v>
       </c>
       <c r="I36">
-        <v>-31</v>
+        <v>53</v>
       </c>
       <c r="J36">
-        <v>-111</v>
+        <v>-196</v>
       </c>
       <c r="K36" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="B37">
-        <v>409</v>
+        <v>282</v>
       </c>
       <c r="C37">
-        <v>423</v>
+        <v>459</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>250</v>
       </c>
       <c r="E37">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H37" t="s">
-        <v>110</v>
+        <v>251</v>
       </c>
       <c r="I37">
-        <v>-91</v>
+        <v>-218</v>
       </c>
       <c r="J37">
-        <v>-77</v>
+        <v>-41</v>
       </c>
       <c r="K37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2746,19 +2801,19 @@
         <v>419</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E38">
         <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I38">
         <v>-125</v>
@@ -2767,10 +2822,10 @@
         <v>-81</v>
       </c>
       <c r="K38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2781,19 +2836,19 @@
         <v>652</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E39">
         <v>56</v>
       </c>
       <c r="F39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -2802,45 +2857,45 @@
         <v>152</v>
       </c>
       <c r="K39" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B40">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="C40">
-        <v>484</v>
+        <v>438</v>
       </c>
       <c r="D40" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="E40">
         <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="H40" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="I40">
-        <v>-140</v>
+        <v>-179</v>
       </c>
       <c r="J40">
-        <v>-16</v>
+        <v>-62</v>
       </c>
       <c r="K40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2851,19 +2906,19 @@
         <v>627</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E41">
         <v>46</v>
       </c>
       <c r="F41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I41">
         <v>-67</v>
@@ -2871,8 +2926,11 @@
       <c r="J41">
         <v>127</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2883,19 +2941,19 @@
         <v>632</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E42">
         <v>56</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I42">
         <v>50</v>
@@ -2904,10 +2962,10 @@
         <v>132</v>
       </c>
       <c r="K42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2918,19 +2976,19 @@
         <v>472</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E43">
         <v>64</v>
       </c>
       <c r="F43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I43">
         <v>146</v>
@@ -2939,10 +2997,10 @@
         <v>-28</v>
       </c>
       <c r="K43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2953,19 +3011,19 @@
         <v>551</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E44">
         <v>35</v>
       </c>
       <c r="F44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I44">
         <v>-133</v>
@@ -2974,10 +3032,10 @@
         <v>51</v>
       </c>
       <c r="K44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2988,19 +3046,19 @@
         <v>404</v>
       </c>
       <c r="D45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I45">
         <v>-100</v>
@@ -3009,10 +3067,10 @@
         <v>-96</v>
       </c>
       <c r="K45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3023,19 +3081,19 @@
         <v>346</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E46">
         <v>53</v>
       </c>
       <c r="F46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I46">
         <v>26</v>
@@ -3043,43 +3101,46 @@
       <c r="J46">
         <v>-154</v>
       </c>
+      <c r="K46" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="B47">
-        <v>470</v>
+        <v>303</v>
       </c>
       <c r="C47">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>285</v>
       </c>
       <c r="E47">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="H47" t="s">
-        <v>135</v>
+        <v>286</v>
       </c>
       <c r="I47">
-        <v>-30</v>
+        <v>-197</v>
       </c>
       <c r="J47">
-        <v>-138</v>
+        <v>-130</v>
       </c>
       <c r="K47" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3090,19 +3151,19 @@
         <v>369</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E48">
         <v>53</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I48">
         <v>78</v>
@@ -3110,43 +3171,46 @@
       <c r="J48">
         <v>-131</v>
       </c>
+      <c r="K48" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="49" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>438</v>
+        <v>335</v>
       </c>
       <c r="C49">
-        <v>371</v>
+        <v>497</v>
       </c>
       <c r="D49" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="E49">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F49" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H49" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="I49">
-        <v>-62</v>
+        <v>-165</v>
       </c>
       <c r="J49">
-        <v>-129</v>
+        <v>-3</v>
       </c>
       <c r="K49" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3157,19 +3221,19 @@
         <v>440</v>
       </c>
       <c r="D50" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E50">
         <v>64</v>
       </c>
       <c r="F50" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s">
         <v>25</v>
       </c>
       <c r="H50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I50">
         <v>126</v>
@@ -3177,8 +3241,11 @@
       <c r="J50">
         <v>-60</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3189,19 +3256,19 @@
         <v>501</v>
       </c>
       <c r="D51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E51">
         <v>65</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H51" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I51">
         <v>140</v>
@@ -3209,8 +3276,11 @@
       <c r="J51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3221,19 +3291,19 @@
         <v>512</v>
       </c>
       <c r="D52" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E52">
         <v>65</v>
       </c>
       <c r="F52" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G52" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I52">
         <v>167</v>
@@ -3242,80 +3312,80 @@
         <v>12</v>
       </c>
       <c r="K52" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B53">
-        <v>335</v>
+        <v>687</v>
       </c>
       <c r="C53">
-        <v>497</v>
+        <v>564</v>
       </c>
       <c r="D53" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="E53">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="F53" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="G53" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="I53">
-        <v>-165</v>
+        <v>187</v>
       </c>
       <c r="J53">
-        <v>-3</v>
+        <v>64</v>
       </c>
       <c r="K53" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B54">
-        <v>338</v>
+        <v>551</v>
       </c>
       <c r="C54">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="D54" t="s">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="E54">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="F54" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="G54" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="H54" t="s">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="I54">
-        <v>-162</v>
+        <v>51</v>
       </c>
       <c r="J54">
-        <v>-43</v>
+        <v>-64</v>
       </c>
       <c r="K54" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3326,19 +3396,19 @@
         <v>457</v>
       </c>
       <c r="D55" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E55">
         <v>64</v>
       </c>
       <c r="F55" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H55" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I55">
         <v>161</v>
@@ -3347,10 +3417,10 @@
         <v>-43</v>
       </c>
       <c r="K55" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3361,19 +3431,19 @@
         <v>381</v>
       </c>
       <c r="D56" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E56">
         <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H56" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I56">
         <v>-104</v>
@@ -3381,8 +3451,11 @@
       <c r="J56">
         <v>-119</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3393,19 +3466,19 @@
         <v>628</v>
       </c>
       <c r="D57" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E57">
         <v>36</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H57" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I57">
         <v>-113</v>
@@ -3414,10 +3487,10 @@
         <v>128</v>
       </c>
       <c r="K57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3428,19 +3501,19 @@
         <v>591</v>
       </c>
       <c r="D58" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E58">
         <v>35</v>
       </c>
       <c r="F58" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I58">
         <v>-149</v>
@@ -3448,8 +3521,11 @@
       <c r="J58">
         <v>91</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3460,19 +3536,19 @@
         <v>377</v>
       </c>
       <c r="D59" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E59">
         <v>63</v>
       </c>
       <c r="F59" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I59">
         <v>113</v>
@@ -3480,43 +3556,46 @@
       <c r="J59">
         <v>-123</v>
       </c>
+      <c r="K59" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="60" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="B60">
-        <v>579</v>
+        <v>518</v>
       </c>
       <c r="C60">
-        <v>638</v>
+        <v>284</v>
       </c>
       <c r="D60" t="s">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="E60">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F60" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="G60" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="H60" t="s">
-        <v>166</v>
+        <v>241</v>
       </c>
       <c r="I60">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="J60">
-        <v>138</v>
+        <v>-216</v>
       </c>
       <c r="K60" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3527,19 +3606,19 @@
         <v>579</v>
       </c>
       <c r="D61" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E61">
         <v>65</v>
       </c>
       <c r="F61" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H61" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I61">
         <v>142</v>
@@ -3548,45 +3627,45 @@
         <v>79</v>
       </c>
       <c r="K61" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="B62">
-        <v>549</v>
+        <v>374</v>
       </c>
       <c r="C62">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="D62" t="s">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="E62">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F62" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="H62" t="s">
-        <v>171</v>
+        <v>270</v>
       </c>
       <c r="I62">
-        <v>49</v>
+        <v>-126</v>
       </c>
       <c r="J62">
-        <v>-150</v>
+        <v>-193</v>
       </c>
       <c r="K62" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3597,19 +3676,19 @@
         <v>569</v>
       </c>
       <c r="D63" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E63">
         <v>35</v>
       </c>
       <c r="F63" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G63" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H63" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I63">
         <v>-150</v>
@@ -3617,43 +3696,46 @@
       <c r="J63">
         <v>69</v>
       </c>
+      <c r="K63" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="64" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>567</v>
+        <v>648</v>
       </c>
       <c r="C64">
-        <v>340</v>
+        <v>623</v>
       </c>
       <c r="D64" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="E64">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="G64" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="H64" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="I64">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="J64">
-        <v>-160</v>
+        <v>123</v>
       </c>
       <c r="K64" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3664,19 +3746,19 @@
         <v>485</v>
       </c>
       <c r="D65" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H65" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I65">
         <v>169</v>
@@ -3685,10 +3767,10 @@
         <v>-15</v>
       </c>
       <c r="K65" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3699,19 +3781,19 @@
         <v>409</v>
       </c>
       <c r="D66" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E66">
         <v>64</v>
       </c>
       <c r="F66" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G66" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H66" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I66">
         <v>148</v>
@@ -3720,10 +3802,10 @@
         <v>-91</v>
       </c>
       <c r="K66" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3734,19 +3816,19 @@
         <v>341</v>
       </c>
       <c r="D67" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E67">
         <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H67" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I67">
         <v>-67</v>
@@ -3754,285 +3836,288 @@
       <c r="J67">
         <v>-159</v>
       </c>
+      <c r="K67" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="68" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B68">
-        <v>504</v>
+        <v>470</v>
       </c>
       <c r="C68">
-        <v>303</v>
+        <v>362</v>
       </c>
       <c r="D68" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="E68">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="H68" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="I68">
-        <v>4</v>
+        <v>-30</v>
       </c>
       <c r="J68">
-        <v>-197</v>
+        <v>-138</v>
       </c>
       <c r="K68" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B69">
-        <v>687</v>
+        <v>701</v>
       </c>
       <c r="C69">
-        <v>564</v>
+        <v>591</v>
       </c>
       <c r="D69" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="E69">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F69" t="s">
-        <v>186</v>
+        <v>51</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H69" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="I69">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="J69">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="K69" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B70">
-        <v>321</v>
+        <v>500</v>
       </c>
       <c r="C70">
-        <v>438</v>
+        <v>726</v>
       </c>
       <c r="D70" t="s">
-        <v>188</v>
+        <v>295</v>
       </c>
       <c r="E70">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H70" t="s">
-        <v>189</v>
+        <v>296</v>
       </c>
       <c r="I70">
-        <v>-179</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>-62</v>
+        <v>226</v>
       </c>
       <c r="K70" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="B71">
-        <v>643</v>
+        <v>590</v>
       </c>
       <c r="C71">
-        <v>360</v>
+        <v>705</v>
       </c>
       <c r="D71" t="s">
-        <v>190</v>
+        <v>258</v>
       </c>
       <c r="E71">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F71" t="s">
-        <v>191</v>
+        <v>259</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H71" t="s">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="I71">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="J71">
-        <v>-140</v>
+        <v>205</v>
       </c>
       <c r="K71" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="B72">
-        <v>308</v>
+        <v>723</v>
       </c>
       <c r="C72">
-        <v>466</v>
+        <v>648</v>
       </c>
       <c r="D72" t="s">
-        <v>193</v>
+        <v>334</v>
       </c>
       <c r="E72">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="F72" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H72" t="s">
-        <v>194</v>
+        <v>335</v>
       </c>
       <c r="I72">
-        <v>-192</v>
+        <v>223</v>
       </c>
       <c r="J72">
-        <v>-34</v>
+        <v>148</v>
       </c>
       <c r="K72" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="B73">
-        <v>363</v>
+        <v>536</v>
       </c>
       <c r="C73">
-        <v>639</v>
+        <v>252</v>
       </c>
       <c r="D73" t="s">
-        <v>195</v>
+        <v>342</v>
       </c>
       <c r="E73">
+        <v>52</v>
+      </c>
+      <c r="F73" t="s">
+        <v>47</v>
+      </c>
+      <c r="G73" t="s">
+        <v>48</v>
+      </c>
+      <c r="H73" t="s">
+        <v>343</v>
+      </c>
+      <c r="I73">
         <v>36</v>
       </c>
-      <c r="F73" t="s">
-        <v>104</v>
-      </c>
-      <c r="G73" t="s">
-        <v>105</v>
-      </c>
-      <c r="H73" t="s">
-        <v>196</v>
-      </c>
-      <c r="I73">
-        <v>-137</v>
-      </c>
       <c r="J73">
-        <v>139</v>
+        <v>-248</v>
       </c>
       <c r="K73" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B74">
-        <v>331</v>
+        <v>549</v>
       </c>
       <c r="C74">
-        <v>609</v>
+        <v>350</v>
       </c>
       <c r="D74" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="E74">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="H74" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="I74">
-        <v>-169</v>
+        <v>49</v>
       </c>
       <c r="J74">
-        <v>109</v>
+        <v>-150</v>
       </c>
       <c r="K74" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="B75">
-        <v>648</v>
+        <v>724</v>
       </c>
       <c r="C75">
-        <v>623</v>
+        <v>590</v>
       </c>
       <c r="D75" t="s">
-        <v>199</v>
+        <v>299</v>
       </c>
       <c r="E75">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G75" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H75" t="s">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I75">
-        <v>148</v>
+        <v>224</v>
       </c>
       <c r="J75">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="K75" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -4046,19 +4131,19 @@
         <v>674</v>
       </c>
       <c r="D76" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E76">
         <v>46</v>
       </c>
       <c r="F76" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H76" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I76">
         <v>-49</v>
@@ -4067,10 +4152,10 @@
         <v>174</v>
       </c>
       <c r="K76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4081,19 +4166,19 @@
         <v>369</v>
       </c>
       <c r="D77" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E77">
         <v>33</v>
       </c>
       <c r="F77" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H77" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I77">
         <v>-147</v>
@@ -4102,80 +4187,80 @@
         <v>-131</v>
       </c>
       <c r="K77" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B78">
-        <v>476</v>
+        <v>296</v>
       </c>
       <c r="C78">
-        <v>688</v>
+        <v>493</v>
       </c>
       <c r="D78" t="s">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="E78">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F78" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="G78" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="H78" t="s">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="I78">
-        <v>-24</v>
+        <v>-204</v>
       </c>
       <c r="J78">
-        <v>188</v>
+        <v>-7</v>
       </c>
       <c r="K78" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B79">
-        <v>533</v>
+        <v>332</v>
       </c>
       <c r="C79">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="D79" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="E79">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F79" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="G79" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="H79" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="I79">
-        <v>33</v>
+        <v>-168</v>
       </c>
       <c r="J79">
-        <v>-185</v>
+        <v>-146</v>
       </c>
       <c r="K79" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4186,19 +4271,19 @@
         <v>694</v>
       </c>
       <c r="D80" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E80">
         <v>56</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H80" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I80">
         <v>7</v>
@@ -4207,80 +4292,80 @@
         <v>194</v>
       </c>
       <c r="K80" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="B81">
-        <v>674</v>
+        <v>449</v>
       </c>
       <c r="C81">
-        <v>430</v>
+        <v>242</v>
       </c>
       <c r="D81" t="s">
-        <v>212</v>
+        <v>320</v>
       </c>
       <c r="E81">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="F81" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="H81" t="s">
-        <v>213</v>
+        <v>321</v>
       </c>
       <c r="I81">
-        <v>174</v>
+        <v>-51</v>
       </c>
       <c r="J81">
-        <v>-70</v>
+        <v>-258</v>
       </c>
       <c r="K81" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="B82">
-        <v>582</v>
+        <v>360</v>
       </c>
       <c r="C82">
-        <v>661</v>
+        <v>484</v>
       </c>
       <c r="D82" t="s">
-        <v>214</v>
+        <v>116</v>
       </c>
       <c r="E82">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F82" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="H82" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="I82">
-        <v>82</v>
+        <v>-140</v>
       </c>
       <c r="J82">
-        <v>161</v>
+        <v>-16</v>
       </c>
       <c r="K82" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4291,19 +4376,19 @@
         <v>628</v>
       </c>
       <c r="D83" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E83">
         <v>36</v>
       </c>
       <c r="F83" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G83" t="s">
         <v>13</v>
       </c>
       <c r="H83" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I83">
         <v>-154</v>
@@ -4311,43 +4396,46 @@
       <c r="J83">
         <v>128</v>
       </c>
+      <c r="K83" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="84" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="B84">
-        <v>670</v>
+        <v>438</v>
       </c>
       <c r="C84">
-        <v>597</v>
+        <v>371</v>
       </c>
       <c r="D84" t="s">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="E84">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F84" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="G84" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H84" t="s">
-        <v>220</v>
+        <v>141</v>
       </c>
       <c r="I84">
-        <v>170</v>
+        <v>-62</v>
       </c>
       <c r="J84">
-        <v>97</v>
+        <v>-129</v>
       </c>
       <c r="K84" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4358,7 +4446,7 @@
         <v>380</v>
       </c>
       <c r="D85" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E85">
         <v>63</v>
@@ -4370,7 +4458,7 @@
         <v>13</v>
       </c>
       <c r="H85" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I85">
         <v>156</v>
@@ -4378,43 +4466,46 @@
       <c r="J85">
         <v>-120</v>
       </c>
+      <c r="K85" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="86" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B86">
-        <v>701</v>
+        <v>674</v>
       </c>
       <c r="C86">
-        <v>591</v>
+        <v>430</v>
       </c>
       <c r="D86" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E86">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F86" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H86" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="I86">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="J86">
-        <v>91</v>
+        <v>-70</v>
       </c>
       <c r="K86" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4425,19 +4516,19 @@
         <v>564</v>
       </c>
       <c r="D87" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E87">
         <v>25</v>
       </c>
       <c r="F87" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H87" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I87">
         <v>-211</v>
@@ -4445,8 +4536,11 @@
       <c r="J87">
         <v>64</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4457,19 +4551,19 @@
         <v>719</v>
       </c>
       <c r="D88" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E88">
         <v>57</v>
       </c>
       <c r="F88" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H88" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I88">
         <v>24</v>
@@ -4477,78 +4571,81 @@
       <c r="J88">
         <v>219</v>
       </c>
+      <c r="K88" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="89" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="B89">
-        <v>584</v>
+        <v>258</v>
       </c>
       <c r="C89">
-        <v>313</v>
+        <v>536</v>
       </c>
       <c r="D89" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="E89">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="F89" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H89" t="s">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="I89">
-        <v>84</v>
+        <v>-242</v>
       </c>
       <c r="J89">
-        <v>-187</v>
+        <v>36</v>
       </c>
       <c r="K89" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="B90">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="C90">
-        <v>668</v>
+        <v>503</v>
       </c>
       <c r="D90" t="s">
-        <v>231</v>
+        <v>98</v>
       </c>
       <c r="E90">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F90" t="s">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H90" t="s">
-        <v>233</v>
+        <v>99</v>
       </c>
       <c r="I90">
-        <v>-142</v>
+        <v>-128</v>
       </c>
       <c r="J90">
-        <v>168</v>
+        <v>3</v>
       </c>
       <c r="K90" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4559,19 +4656,19 @@
         <v>333</v>
       </c>
       <c r="D91" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E91">
         <v>33</v>
       </c>
       <c r="F91" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G91" t="s">
         <v>13</v>
       </c>
       <c r="H91" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I91">
         <v>-131</v>
@@ -4580,115 +4677,115 @@
         <v>-167</v>
       </c>
       <c r="K91" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="B92">
-        <v>332</v>
+        <v>502</v>
       </c>
       <c r="C92">
-        <v>354</v>
+        <v>455</v>
       </c>
       <c r="D92" t="s">
-        <v>237</v>
+        <v>38</v>
       </c>
       <c r="E92">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="F92" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="G92" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="H92" t="s">
-        <v>238</v>
+        <v>39</v>
       </c>
       <c r="I92">
-        <v>-168</v>
+        <v>2</v>
       </c>
       <c r="J92">
-        <v>-146</v>
+        <v>-45</v>
       </c>
       <c r="K92" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B93">
-        <v>518</v>
+        <v>476</v>
       </c>
       <c r="C93">
-        <v>284</v>
+        <v>688</v>
       </c>
       <c r="D93" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="E93">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F93" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="G93" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="H93" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="I93">
-        <v>18</v>
+        <v>-24</v>
       </c>
       <c r="J93">
-        <v>-216</v>
+        <v>188</v>
       </c>
       <c r="K93" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B94">
-        <v>612</v>
+        <v>567</v>
       </c>
       <c r="C94">
-        <v>686</v>
+        <v>340</v>
       </c>
       <c r="D94" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="E94">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F94" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H94" t="s">
-        <v>242</v>
+        <v>177</v>
       </c>
       <c r="I94">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="J94">
-        <v>186</v>
+        <v>-160</v>
       </c>
       <c r="K94" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4699,19 +4796,19 @@
         <v>446</v>
       </c>
       <c r="D95" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E95">
         <v>64</v>
       </c>
       <c r="F95" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H95" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I95">
         <v>196</v>
@@ -4720,10 +4817,10 @@
         <v>-54</v>
       </c>
       <c r="K95" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4734,19 +4831,19 @@
         <v>647</v>
       </c>
       <c r="D96" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E96">
         <v>66</v>
       </c>
       <c r="F96" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G96" t="s">
         <v>13</v>
       </c>
       <c r="H96" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I96">
         <v>155</v>
@@ -4754,78 +4851,81 @@
       <c r="J96">
         <v>147</v>
       </c>
+      <c r="K96" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="97" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="B97">
-        <v>282</v>
+        <v>579</v>
       </c>
       <c r="C97">
-        <v>459</v>
+        <v>638</v>
       </c>
       <c r="D97" t="s">
-        <v>249</v>
+        <v>165</v>
       </c>
       <c r="E97">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="F97" t="s">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="G97" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="H97" t="s">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="I97">
-        <v>-218</v>
+        <v>79</v>
       </c>
       <c r="J97">
-        <v>-41</v>
+        <v>138</v>
       </c>
       <c r="K97" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="B98">
-        <v>553</v>
+        <v>517</v>
       </c>
       <c r="C98">
-        <v>304</v>
+        <v>374</v>
       </c>
       <c r="D98" t="s">
-        <v>251</v>
+        <v>85</v>
       </c>
       <c r="E98">
         <v>53</v>
       </c>
       <c r="F98" t="s">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="H98" t="s">
-        <v>252</v>
+        <v>88</v>
       </c>
       <c r="I98">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="J98">
-        <v>-196</v>
+        <v>-126</v>
       </c>
       <c r="K98" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4836,19 +4936,19 @@
         <v>467</v>
       </c>
       <c r="D99" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E99">
         <v>74</v>
       </c>
       <c r="F99" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G99" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H99" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I99">
         <v>219</v>
@@ -4856,113 +4956,116 @@
       <c r="J99">
         <v>-33</v>
       </c>
+      <c r="K99" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="100" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B100">
-        <v>320</v>
+        <v>432</v>
       </c>
       <c r="C100">
-        <v>627</v>
+        <v>277</v>
       </c>
       <c r="D100" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="E100">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F100" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H100" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="I100">
-        <v>-180</v>
+        <v>-68</v>
       </c>
       <c r="J100">
-        <v>127</v>
+        <v>-223</v>
       </c>
       <c r="K100" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B101">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="C101">
-        <v>705</v>
+        <v>661</v>
       </c>
       <c r="D101" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="E101">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F101" t="s">
-        <v>258</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H101" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="I101">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J101">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="K101" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="B102">
-        <v>302</v>
+        <v>611</v>
       </c>
       <c r="C102">
-        <v>398</v>
+        <v>574</v>
       </c>
       <c r="D102" t="s">
-        <v>260</v>
+        <v>92</v>
       </c>
       <c r="E102">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="F102" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="G102" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H102" t="s">
-        <v>261</v>
+        <v>93</v>
       </c>
       <c r="I102">
-        <v>-198</v>
+        <v>111</v>
       </c>
       <c r="J102">
-        <v>-102</v>
+        <v>74</v>
       </c>
       <c r="K102" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4973,19 +5076,19 @@
         <v>518</v>
       </c>
       <c r="D103" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E103">
         <v>75</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G103" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H103" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I103">
         <v>222</v>
@@ -4993,8 +5096,11 @@
       <c r="J103">
         <v>18</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5005,19 +5111,19 @@
         <v>584</v>
       </c>
       <c r="D104" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E104">
         <v>25</v>
       </c>
       <c r="F104" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H104" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I104">
         <v>-203</v>
@@ -5025,78 +5131,81 @@
       <c r="J104">
         <v>84</v>
       </c>
+      <c r="K104" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="B105">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="C105">
-        <v>493</v>
+        <v>457</v>
       </c>
       <c r="D105" t="s">
-        <v>266</v>
+        <v>151</v>
       </c>
       <c r="E105">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G105" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H105" t="s">
-        <v>267</v>
+        <v>152</v>
       </c>
       <c r="I105">
-        <v>-204</v>
+        <v>-162</v>
       </c>
       <c r="J105">
-        <v>-7</v>
+        <v>-43</v>
       </c>
       <c r="K105" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="B106">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="C106">
-        <v>307</v>
+        <v>423</v>
       </c>
       <c r="D106" t="s">
-        <v>268</v>
+        <v>110</v>
       </c>
       <c r="E106">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F106" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G106" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H106" t="s">
-        <v>269</v>
+        <v>111</v>
       </c>
       <c r="I106">
-        <v>-126</v>
+        <v>-91</v>
       </c>
       <c r="J106">
-        <v>-193</v>
+        <v>-77</v>
       </c>
       <c r="K106" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5107,19 +5216,19 @@
         <v>682</v>
       </c>
       <c r="D107" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E107">
         <v>66</v>
       </c>
       <c r="F107" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H107" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I107">
         <v>141</v>
@@ -5127,8 +5236,11 @@
       <c r="J107">
         <v>182</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5139,7 +5251,7 @@
         <v>329</v>
       </c>
       <c r="D108" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E108">
         <v>33</v>
@@ -5151,7 +5263,7 @@
         <v>13</v>
       </c>
       <c r="H108" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I108">
         <v>-151</v>
@@ -5159,8 +5271,11 @@
       <c r="J108">
         <v>-171</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5171,7 +5286,7 @@
         <v>275</v>
       </c>
       <c r="D109" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E109">
         <v>42</v>
@@ -5183,7 +5298,7 @@
         <v>13</v>
       </c>
       <c r="H109" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I109">
         <v>-98</v>
@@ -5192,10 +5307,10 @@
         <v>-225</v>
       </c>
       <c r="K109" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5206,19 +5321,19 @@
         <v>361</v>
       </c>
       <c r="D110" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E110">
         <v>63</v>
       </c>
       <c r="F110" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G110" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H110" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I110">
         <v>199</v>
@@ -5227,45 +5342,45 @@
         <v>-139</v>
       </c>
       <c r="K110" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B111">
-        <v>258</v>
+        <v>584</v>
       </c>
       <c r="C111">
-        <v>536</v>
+        <v>313</v>
       </c>
       <c r="D111" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="E111">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="F111" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H111" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="I111">
-        <v>-242</v>
+        <v>84</v>
       </c>
       <c r="J111">
-        <v>36</v>
+        <v>-187</v>
       </c>
       <c r="K111" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5276,19 +5391,19 @@
         <v>264</v>
       </c>
       <c r="D112" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E112">
         <v>52</v>
       </c>
       <c r="F112" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G112" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H112" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I112">
         <v>68</v>
@@ -5296,8 +5411,11 @@
       <c r="J112">
         <v>-236</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K112" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5308,19 +5426,19 @@
         <v>436</v>
       </c>
       <c r="D113" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E113">
         <v>74</v>
       </c>
       <c r="F113" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H113" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I113">
         <v>221</v>
@@ -5328,43 +5446,46 @@
       <c r="J113">
         <v>-64</v>
       </c>
+      <c r="K113" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="114" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="B114">
-        <v>303</v>
+        <v>380</v>
       </c>
       <c r="C114">
-        <v>370</v>
+        <v>460</v>
       </c>
       <c r="D114" t="s">
-        <v>284</v>
+        <v>104</v>
       </c>
       <c r="E114">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F114" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="G114" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="H114" t="s">
-        <v>285</v>
+        <v>107</v>
       </c>
       <c r="I114">
-        <v>-197</v>
+        <v>-120</v>
       </c>
       <c r="J114">
-        <v>-130</v>
+        <v>-40</v>
       </c>
       <c r="K114" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5375,19 +5496,19 @@
         <v>519</v>
       </c>
       <c r="D115" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E115">
         <v>75</v>
       </c>
       <c r="F115" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H115" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I115">
         <v>246</v>
@@ -5395,8 +5516,11 @@
       <c r="J115">
         <v>19</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K115" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5407,19 +5531,19 @@
         <v>334</v>
       </c>
       <c r="D116" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E116">
         <v>63</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H116" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I116">
         <v>165</v>
@@ -5428,45 +5552,45 @@
         <v>-166</v>
       </c>
       <c r="K116" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B117">
-        <v>740</v>
+        <v>579</v>
       </c>
       <c r="C117">
-        <v>485</v>
+        <v>287</v>
       </c>
       <c r="D117" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="E117">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="F117" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H117" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="I117">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="J117">
-        <v>-15</v>
+        <v>-213</v>
       </c>
       <c r="K117" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5477,19 +5601,19 @@
         <v>434</v>
       </c>
       <c r="D118" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E118">
         <v>24</v>
       </c>
       <c r="F118" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H118" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I118">
         <v>-237</v>
@@ -5497,113 +5621,116 @@
       <c r="J118">
         <v>-66</v>
       </c>
+      <c r="K118" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="119" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="B119">
-        <v>500</v>
+        <v>643</v>
       </c>
       <c r="C119">
-        <v>726</v>
+        <v>360</v>
       </c>
       <c r="D119" t="s">
-        <v>294</v>
+        <v>191</v>
       </c>
       <c r="E119">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F119" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H119" t="s">
-        <v>295</v>
+        <v>193</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="J119">
-        <v>226</v>
+        <v>-140</v>
       </c>
       <c r="K119" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="B120">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="C120">
-        <v>277</v>
+        <v>476</v>
       </c>
       <c r="D120" t="s">
-        <v>296</v>
+        <v>83</v>
       </c>
       <c r="E120">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F120" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="G120" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H120" t="s">
-        <v>297</v>
+        <v>84</v>
       </c>
       <c r="I120">
-        <v>-68</v>
+        <v>-98</v>
       </c>
       <c r="J120">
-        <v>-223</v>
+        <v>-24</v>
       </c>
       <c r="K120" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B121">
-        <v>724</v>
+        <v>320</v>
       </c>
       <c r="C121">
-        <v>590</v>
+        <v>627</v>
       </c>
       <c r="D121" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="E121">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="F121" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="G121" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="H121" t="s">
-        <v>299</v>
+        <v>257</v>
       </c>
       <c r="I121">
-        <v>224</v>
+        <v>-180</v>
       </c>
       <c r="J121">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="K121" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5614,19 +5741,19 @@
         <v>602</v>
       </c>
       <c r="D122" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E122">
         <v>26</v>
       </c>
       <c r="F122" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H122" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I122">
         <v>-214</v>
@@ -5635,10 +5762,10 @@
         <v>102</v>
       </c>
       <c r="K122" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5649,19 +5776,19 @@
         <v>553</v>
       </c>
       <c r="D123" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E123">
         <v>75</v>
       </c>
       <c r="F123" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G123" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H123" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I123">
         <v>235</v>
@@ -5670,10 +5797,10 @@
         <v>53</v>
       </c>
       <c r="K123" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5684,19 +5811,19 @@
         <v>716</v>
       </c>
       <c r="D124" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E124">
         <v>47</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H124" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I124">
         <v>-72</v>
@@ -5705,45 +5832,45 @@
         <v>216</v>
       </c>
       <c r="K124" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B125">
-        <v>579</v>
+        <v>302</v>
       </c>
       <c r="C125">
-        <v>287</v>
+        <v>398</v>
       </c>
       <c r="D125" t="s">
-        <v>306</v>
+        <v>261</v>
       </c>
       <c r="E125">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F125" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H125" t="s">
-        <v>307</v>
+        <v>262</v>
       </c>
       <c r="I125">
-        <v>79</v>
+        <v>-198</v>
       </c>
       <c r="J125">
-        <v>-213</v>
+        <v>-102</v>
       </c>
       <c r="K125" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5754,19 +5881,19 @@
         <v>413</v>
       </c>
       <c r="D126" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E126">
         <v>24</v>
       </c>
       <c r="F126" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H126" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I126">
         <v>-218</v>
@@ -5775,10 +5902,10 @@
         <v>-87</v>
       </c>
       <c r="K126" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5789,19 +5916,19 @@
         <v>400</v>
       </c>
       <c r="D127" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E127">
         <v>74</v>
       </c>
       <c r="F127" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H127" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I127">
         <v>213</v>
@@ -5810,10 +5937,10 @@
         <v>-100</v>
       </c>
       <c r="K127" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5824,19 +5951,19 @@
         <v>282</v>
       </c>
       <c r="D128" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E128">
         <v>62</v>
       </c>
       <c r="F128" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H128" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I128">
         <v>148</v>
@@ -5845,10 +5972,10 @@
         <v>-218</v>
       </c>
       <c r="K128" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5859,19 +5986,19 @@
         <v>312</v>
       </c>
       <c r="D129" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E129">
         <v>63</v>
       </c>
       <c r="F129" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G129" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H129" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I129">
         <v>178</v>
@@ -5879,8 +6006,11 @@
       <c r="J129">
         <v>-188</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5891,19 +6021,19 @@
         <v>364</v>
       </c>
       <c r="D130" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E130">
         <v>23</v>
       </c>
       <c r="F130" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H130" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I130">
         <v>-222</v>
@@ -5912,45 +6042,45 @@
         <v>-136</v>
       </c>
       <c r="K130" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B131">
-        <v>449</v>
+        <v>306</v>
       </c>
       <c r="C131">
-        <v>242</v>
+        <v>317</v>
       </c>
       <c r="D131" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="E131">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F131" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="G131" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="H131" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="I131">
-        <v>-51</v>
+        <v>-194</v>
       </c>
       <c r="J131">
-        <v>-258</v>
+        <v>-183</v>
       </c>
       <c r="K131" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5961,19 +6091,19 @@
         <v>410</v>
       </c>
       <c r="D132" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E132">
         <v>24</v>
       </c>
       <c r="F132" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G132" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H132" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I132">
         <v>-243</v>
@@ -5982,10 +6112,10 @@
         <v>-90</v>
       </c>
       <c r="K132" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5996,19 +6126,19 @@
         <v>381</v>
       </c>
       <c r="D133" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E133">
         <v>23</v>
       </c>
       <c r="F133" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H133" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I133">
         <v>-236</v>
@@ -6017,10 +6147,10 @@
         <v>-119</v>
       </c>
       <c r="K133" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6031,19 +6161,19 @@
         <v>725</v>
       </c>
       <c r="D134" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E134">
         <v>37</v>
       </c>
       <c r="F134" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H134" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I134">
         <v>-129</v>
@@ -6051,8 +6181,11 @@
       <c r="J134">
         <v>225</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K134" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6063,19 +6196,19 @@
         <v>767</v>
       </c>
       <c r="D135" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E135">
         <v>47</v>
       </c>
       <c r="F135" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H135" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I135">
         <v>-3</v>
@@ -6083,8 +6216,11 @@
       <c r="J135">
         <v>267</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K135" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6095,7 +6231,7 @@
         <v>241</v>
       </c>
       <c r="D136" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E136">
         <v>52</v>
@@ -6107,7 +6243,7 @@
         <v>25</v>
       </c>
       <c r="H136" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I136">
         <v>71</v>
@@ -6115,8 +6251,11 @@
       <c r="J136">
         <v>-259</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K136" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6127,19 +6266,19 @@
         <v>638</v>
       </c>
       <c r="D137" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E137">
         <v>26</v>
       </c>
       <c r="F137" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H137" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I137">
         <v>-217</v>
@@ -6148,45 +6287,45 @@
         <v>138</v>
       </c>
       <c r="K137" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>137</v>
+        <v>5</v>
       </c>
       <c r="B138">
-        <v>723</v>
+        <v>528</v>
       </c>
       <c r="C138">
-        <v>648</v>
+        <v>454</v>
       </c>
       <c r="D138" t="s">
-        <v>333</v>
+        <v>28</v>
       </c>
       <c r="E138">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F138" t="s">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H138" t="s">
-        <v>334</v>
+        <v>31</v>
       </c>
       <c r="I138">
-        <v>223</v>
+        <v>28</v>
       </c>
       <c r="J138">
-        <v>148</v>
+        <v>-46</v>
       </c>
       <c r="K138" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6197,19 +6336,19 @@
         <v>605</v>
       </c>
       <c r="D139" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E139">
         <v>26</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H139" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I139">
         <v>-244</v>
@@ -6217,8 +6356,11 @@
       <c r="J139">
         <v>105</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K139" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6229,19 +6371,19 @@
         <v>325</v>
       </c>
       <c r="D140" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E140">
         <v>63</v>
       </c>
       <c r="F140" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H140" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I140">
         <v>198</v>
@@ -6249,8 +6391,11 @@
       <c r="J140">
         <v>-175</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6261,19 +6406,19 @@
         <v>570</v>
       </c>
       <c r="D141" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E141">
         <v>75</v>
       </c>
       <c r="F141" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H141" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I141">
         <v>251</v>
@@ -6282,45 +6427,45 @@
         <v>70</v>
       </c>
       <c r="K141" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="B142">
-        <v>536</v>
+        <v>670</v>
       </c>
       <c r="C142">
-        <v>252</v>
+        <v>597</v>
       </c>
       <c r="D142" t="s">
-        <v>341</v>
+        <v>220</v>
       </c>
       <c r="E142">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F142" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G142" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H142" t="s">
-        <v>342</v>
+        <v>221</v>
       </c>
       <c r="I142">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="J142">
-        <v>-248</v>
+        <v>97</v>
       </c>
       <c r="K142" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6331,19 +6476,19 @@
         <v>428</v>
       </c>
       <c r="D143" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E143">
         <v>74</v>
       </c>
       <c r="F143" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G143" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H143" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I143">
         <v>257</v>
@@ -6351,8 +6496,11 @@
       <c r="J143">
         <v>-72</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K143" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6363,19 +6511,19 @@
         <v>497</v>
       </c>
       <c r="D144" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E144">
         <v>24</v>
       </c>
       <c r="F144" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H144" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I144">
         <v>-254</v>
@@ -6383,78 +6531,81 @@
       <c r="J144">
         <v>-3</v>
       </c>
+      <c r="K144" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="145" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>144</v>
+        <v>4</v>
       </c>
       <c r="B145">
-        <v>306</v>
+        <v>486</v>
       </c>
       <c r="C145">
-        <v>317</v>
+        <v>479</v>
       </c>
       <c r="D145" t="s">
-        <v>347</v>
+        <v>23</v>
       </c>
       <c r="E145">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F145" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G145" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="H145" t="s">
-        <v>348</v>
+        <v>26</v>
       </c>
       <c r="I145">
-        <v>-194</v>
+        <v>-14</v>
       </c>
       <c r="J145">
-        <v>-183</v>
+        <v>-21</v>
       </c>
       <c r="K145" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="B146">
-        <v>341</v>
+        <v>533</v>
       </c>
       <c r="C146">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="D146" t="s">
-        <v>349</v>
+        <v>209</v>
       </c>
       <c r="E146">
+        <v>53</v>
+      </c>
+      <c r="F146" t="s">
+        <v>79</v>
+      </c>
+      <c r="G146" t="s">
+        <v>25</v>
+      </c>
+      <c r="H146" t="s">
+        <v>210</v>
+      </c>
+      <c r="I146">
         <v>33</v>
       </c>
-      <c r="F146" t="s">
-        <v>46</v>
-      </c>
-      <c r="G146" t="s">
-        <v>47</v>
-      </c>
-      <c r="H146" t="s">
-        <v>350</v>
-      </c>
-      <c r="I146">
-        <v>-159</v>
-      </c>
       <c r="J146">
-        <v>-194</v>
+        <v>-185</v>
       </c>
       <c r="K146" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6465,19 +6616,19 @@
         <v>690</v>
       </c>
       <c r="D147" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E147">
         <v>66</v>
       </c>
       <c r="F147" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G147" t="s">
         <v>13</v>
       </c>
       <c r="H147" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I147">
         <v>166</v>
@@ -6486,10 +6637,10 @@
         <v>190</v>
       </c>
       <c r="K147" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6500,19 +6651,19 @@
         <v>256</v>
       </c>
       <c r="D148" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E148">
         <v>42</v>
       </c>
       <c r="F148" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H148" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I148">
         <v>-89</v>
@@ -6520,8 +6671,11 @@
       <c r="J148">
         <v>-244</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K148" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6532,19 +6686,19 @@
         <v>750</v>
       </c>
       <c r="D149" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E149">
         <v>57</v>
       </c>
       <c r="F149" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G149" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H149" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I149">
         <v>24</v>
@@ -6552,43 +6706,46 @@
       <c r="J149">
         <v>250</v>
       </c>
+      <c r="K149" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="150" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="B150">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="C150">
-        <v>246</v>
+        <v>303</v>
       </c>
       <c r="D150" t="s">
-        <v>359</v>
+        <v>184</v>
       </c>
       <c r="E150">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F150" t="s">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="G150" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="H150" t="s">
-        <v>360</v>
+        <v>185</v>
       </c>
       <c r="I150">
-        <v>-20</v>
+        <v>4</v>
       </c>
       <c r="J150">
-        <v>-254</v>
+        <v>-197</v>
       </c>
       <c r="K150" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6599,19 +6756,19 @@
         <v>736</v>
       </c>
       <c r="D151" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E151">
         <v>67</v>
       </c>
       <c r="F151" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H151" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I151">
         <v>119</v>
@@ -6619,12 +6776,24 @@
       <c r="J151">
         <v>236</v>
       </c>
+      <c r="K151" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K151" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K151" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="10">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:K150">
+      <sortCondition ref="D1:D151"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:K4 A7:K8 A5:J5 A6:J6 A10:K15 A9:J9 A17:K25 A16:J16 A28:K28 A26:J26 A27:J27 A30:K31 A29:J29 A33:K34 A32:J32 A38:K39 A35:J35 A36:J36 A37:J37 A41:K46 A40:J40 A48:K48 A47:J47 A50:K52 A49:J49 A55:K59 A53:J53 A54:J54 A61:K61 A60:J60 A63:K63 A62:J62 A65:K67 A64:J64 A77:K77 A68:J68 A69:J69 A70:J70 A71:J71 A72:J72 A73:J73 A74:J74 A75:J75 A76:J76 A80:K80 A78:J78 A79:J79 A83:K83 A81:J81 A82:J82 A85:K85 A84:J84 A87:K88 A86:J86 A91:K91 A89:J89 A90:J90 A95:K96 A92:J92 A93:J93 A94:J94 A99:K99 A97:J97 A98:J98 A103:K104 A100:J100 A101:J101 A102:J102 A107:K110 A105:J105 A106:J106 A112:K113 A111:J111 A115:K116 A114:J114 A118:K118 A117:J117 A122:K124 A119:J119 A120:J120 A121:J121 A126:K130 A125:J125 A132:K137 A131:J131 A139:K141 A138:J138 A143:K144 A142:J142 A147:K149 A145:J145 A146:J146 A151:K1001 A150:J150" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:K4 A151:K151" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>